--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1522162.819949775</v>
+        <v>1521514.460722971</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11517486.19315932</v>
+        <v>11517486.19315933</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673424</v>
       </c>
     </row>
     <row r="9">
@@ -1373,16 +1373,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>72.40356150710403</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>19.47552824536824</v>
       </c>
       <c r="F11" t="n">
-        <v>63.77305697545742</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>72.40356150710403</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.105504016098947</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>37.19202471399004</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710403</v>
       </c>
       <c r="X11" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>11.80690084956993</v>
+        <v>11.80690084956965</v>
       </c>
       <c r="V12" t="n">
-        <v>18.68115031993858</v>
+        <v>18.6811503199383</v>
       </c>
       <c r="W12" t="n">
-        <v>37.57554633143292</v>
+        <v>37.57554633143263</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>6.556120159855319</v>
+        <v>6.556120159855034</v>
       </c>
       <c r="T13" t="n">
-        <v>13.00701368779522</v>
+        <v>13.00701368779493</v>
       </c>
       <c r="U13" t="n">
-        <v>72.18913543452335</v>
+        <v>72.18913543452307</v>
       </c>
       <c r="V13" t="n">
-        <v>38.01820649434131</v>
+        <v>38.01820649434103</v>
       </c>
       <c r="W13" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710403</v>
       </c>
       <c r="X13" t="n">
-        <v>11.59021855955046</v>
+        <v>11.59021855955018</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.465216522608102</v>
+        <v>4.465216522607818</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>72.40356150710403</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>72.40356150710403</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.105504016098934</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>37.19202471399004</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>19.47552824536827</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>72.40356150710403</v>
       </c>
       <c r="X14" t="n">
-        <v>63.77305697545712</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>11.80690084956993</v>
+        <v>11.80690084956965</v>
       </c>
       <c r="V15" t="n">
-        <v>18.68115031993858</v>
+        <v>18.6811503199383</v>
       </c>
       <c r="W15" t="n">
-        <v>37.57554633143292</v>
+        <v>37.57554633143263</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>6.556120159855319</v>
+        <v>6.556120159855034</v>
       </c>
       <c r="T16" t="n">
-        <v>13.00701368779522</v>
+        <v>13.00701368779493</v>
       </c>
       <c r="U16" t="n">
-        <v>72.18913543452335</v>
+        <v>72.18913543452307</v>
       </c>
       <c r="V16" t="n">
-        <v>38.01820649434131</v>
+        <v>38.01820649434103</v>
       </c>
       <c r="W16" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710403</v>
       </c>
       <c r="X16" t="n">
-        <v>11.59021855955046</v>
+        <v>11.59021855955018</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.465216522608102</v>
+        <v>4.465216522607818</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.88964134293036</v>
+        <v>34.88964134293042</v>
       </c>
       <c r="C17" t="n">
-        <v>17.42869145045734</v>
+        <v>17.42869145045739</v>
       </c>
       <c r="D17" t="n">
-        <v>6.838841300132742</v>
+        <v>6.838841300132042</v>
       </c>
       <c r="E17" t="n">
-        <v>34.08616975171157</v>
+        <v>34.08616975171162</v>
       </c>
       <c r="F17" t="n">
-        <v>59.03184542116122</v>
+        <v>59.03184542116128</v>
       </c>
       <c r="G17" t="n">
-        <v>67.0311451400913</v>
+        <v>67.03114514009135</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.396768396862797</v>
+        <v>1.396768396862853</v>
       </c>
       <c r="X17" t="n">
-        <v>21.88690035791882</v>
+        <v>21.88690035791888</v>
       </c>
       <c r="Y17" t="n">
-        <v>38.39373833550337</v>
+        <v>38.39373833550343</v>
       </c>
     </row>
     <row r="18">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.88964134293036</v>
+        <v>34.88964134293042</v>
       </c>
       <c r="C20" t="n">
-        <v>17.42869145045734</v>
+        <v>17.42869145045739</v>
       </c>
       <c r="D20" t="n">
-        <v>6.838841300132742</v>
+        <v>6.838841300132799</v>
       </c>
       <c r="E20" t="n">
-        <v>34.08616975171157</v>
+        <v>34.08616975171162</v>
       </c>
       <c r="F20" t="n">
-        <v>59.03184542116122</v>
+        <v>59.03184542116097</v>
       </c>
       <c r="G20" t="n">
-        <v>67.03114514009133</v>
+        <v>67.03114514009138</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.396768396862701</v>
+        <v>1.396768396862853</v>
       </c>
       <c r="X20" t="n">
-        <v>21.88690035791882</v>
+        <v>21.88690035791888</v>
       </c>
       <c r="Y20" t="n">
-        <v>38.39373833550337</v>
+        <v>38.39373833550343</v>
       </c>
     </row>
     <row r="21">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.88964134293036</v>
+        <v>34.88964134293042</v>
       </c>
       <c r="C23" t="n">
-        <v>17.42869145045734</v>
+        <v>17.42869145045739</v>
       </c>
       <c r="D23" t="n">
-        <v>6.838841300132742</v>
+        <v>6.838841300132799</v>
       </c>
       <c r="E23" t="n">
-        <v>34.08616975171157</v>
+        <v>34.08616975171162</v>
       </c>
       <c r="F23" t="n">
-        <v>59.03184542116122</v>
+        <v>59.03184542116128</v>
       </c>
       <c r="G23" t="n">
-        <v>67.03114514009133</v>
+        <v>67.03114514009138</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.396768396862797</v>
+        <v>1.396768396862853</v>
       </c>
       <c r="X23" t="n">
-        <v>21.88690035791882</v>
+        <v>21.88690035791888</v>
       </c>
       <c r="Y23" t="n">
-        <v>38.39373833550337</v>
+        <v>38.39373833550343</v>
       </c>
     </row>
     <row r="24">
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>5.901509671695969</v>
+        <v>5.901509671695968</v>
       </c>
       <c r="U28" t="n">
         <v>65.0836314184241</v>
@@ -2807,7 +2807,7 @@
         <v>193.6504046150556</v>
       </c>
       <c r="H29" t="n">
-        <v>113.8728323920993</v>
+        <v>113.872832392099</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,13 +2846,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>30.08652069789108</v>
+        <v>30.08652069789107</v>
       </c>
       <c r="V29" t="n">
         <v>106.527317624549</v>
       </c>
       <c r="W29" t="n">
-        <v>128.0160278718282</v>
+        <v>128.0160278718271</v>
       </c>
       <c r="X29" t="n">
         <v>148.5061598328831</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>5.901509671695969</v>
+        <v>5.901509671695968</v>
       </c>
       <c r="U31" t="n">
         <v>65.0836314184241</v>
@@ -3029,7 +3029,7 @@
         <v>161.5089008178947</v>
       </c>
       <c r="C32" t="n">
-        <v>144.0479509254217</v>
+        <v>144.0479509254216</v>
       </c>
       <c r="D32" t="n">
         <v>133.4581007750971</v>
@@ -3038,10 +3038,10 @@
         <v>160.7054292266759</v>
       </c>
       <c r="F32" t="n">
-        <v>185.6511048961256</v>
+        <v>185.6511048961255</v>
       </c>
       <c r="G32" t="n">
-        <v>193.6504046150557</v>
+        <v>193.6504046150556</v>
       </c>
       <c r="H32" t="n">
         <v>113.8728323920994</v>
@@ -3083,16 +3083,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.08652069789116</v>
+        <v>30.0865206978911</v>
       </c>
       <c r="V32" t="n">
-        <v>106.5273176245491</v>
+        <v>106.527317624549</v>
       </c>
       <c r="W32" t="n">
-        <v>128.0160278718272</v>
+        <v>128.0160278718271</v>
       </c>
       <c r="X32" t="n">
-        <v>148.5061598328832</v>
+        <v>148.5061598328831</v>
       </c>
       <c r="Y32" t="n">
         <v>165.0129978104677</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>4.701396833470772</v>
+        <v>4.701396833470715</v>
       </c>
       <c r="V33" t="n">
-        <v>11.57564630383942</v>
+        <v>11.57564630383936</v>
       </c>
       <c r="W33" t="n">
-        <v>30.47004231533376</v>
+        <v>30.4700423153337</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>5.901509671696054</v>
+        <v>5.901509671695996</v>
       </c>
       <c r="U34" t="n">
-        <v>65.08363141842419</v>
+        <v>65.08363141842413</v>
       </c>
       <c r="V34" t="n">
-        <v>30.91270247824215</v>
+        <v>30.9127024782421</v>
       </c>
       <c r="W34" t="n">
-        <v>65.29805749100515</v>
+        <v>65.2980574910051</v>
       </c>
       <c r="X34" t="n">
-        <v>4.484714543451304</v>
+        <v>4.484714543451247</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>138.0935890264971</v>
+        <v>138.0935890264973</v>
       </c>
       <c r="C35" t="n">
-        <v>120.6326391340241</v>
+        <v>120.6326391340242</v>
       </c>
       <c r="D35" t="n">
-        <v>110.0427889836995</v>
+        <v>110.0427889836996</v>
       </c>
       <c r="E35" t="n">
-        <v>137.2901174352783</v>
+        <v>137.2901174352785</v>
       </c>
       <c r="F35" t="n">
-        <v>162.235793104728</v>
+        <v>162.2357931047281</v>
       </c>
       <c r="G35" t="n">
-        <v>170.2350928236581</v>
+        <v>170.2350928236582</v>
       </c>
       <c r="H35" t="n">
-        <v>90.45752060070183</v>
+        <v>90.45752060070194</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.671208906493579</v>
+        <v>6.671208906493689</v>
       </c>
       <c r="V35" t="n">
-        <v>83.11200583315147</v>
+        <v>83.11200583315158</v>
       </c>
       <c r="W35" t="n">
-        <v>104.6007160804296</v>
+        <v>104.6007160804297</v>
       </c>
       <c r="X35" t="n">
-        <v>125.0908480414856</v>
+        <v>125.0908480414857</v>
       </c>
       <c r="Y35" t="n">
-        <v>141.5976860190702</v>
+        <v>141.5976860190703</v>
       </c>
     </row>
     <row r="36">
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>7.054730523936172</v>
+        <v>7.054730523936286</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>41.66831962702661</v>
+        <v>41.66831962702672</v>
       </c>
       <c r="V37" t="n">
-        <v>7.497390686844568</v>
+        <v>7.497390686844682</v>
       </c>
       <c r="W37" t="n">
-        <v>41.88274569960757</v>
+        <v>41.88274569960768</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>138.0935890264971</v>
+        <v>138.0935890264972</v>
       </c>
       <c r="C38" t="n">
         <v>120.6326391340241</v>
       </c>
       <c r="D38" t="n">
-        <v>110.0427889836995</v>
+        <v>110.0427889836996</v>
       </c>
       <c r="E38" t="n">
-        <v>137.2901174352783</v>
+        <v>137.2901174352784</v>
       </c>
       <c r="F38" t="n">
         <v>162.235793104728</v>
@@ -3518,7 +3518,7 @@
         <v>170.2350928236581</v>
       </c>
       <c r="H38" t="n">
-        <v>90.45752060070183</v>
+        <v>90.45752060070186</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.671208906493575</v>
+        <v>6.671208906493604</v>
       </c>
       <c r="V38" t="n">
-        <v>83.11200583315147</v>
+        <v>83.1120058331515</v>
       </c>
       <c r="W38" t="n">
         <v>104.6007160804296</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>7.054730523936172</v>
+        <v>7.0547305239362</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>41.66831962702661</v>
+        <v>41.66831962702663</v>
       </c>
       <c r="V40" t="n">
-        <v>7.497390686844568</v>
+        <v>7.497390686844597</v>
       </c>
       <c r="W40" t="n">
-        <v>41.88274569960757</v>
+        <v>41.8827456996076</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>162.2357931047281</v>
       </c>
       <c r="G41" t="n">
-        <v>170.2350928236581</v>
+        <v>170.2350928236582</v>
       </c>
       <c r="H41" t="n">
-        <v>90.45752060070188</v>
+        <v>90.45752060070191</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.671208906493636</v>
+        <v>6.671208906493664</v>
       </c>
       <c r="V41" t="n">
-        <v>83.11200583315153</v>
+        <v>83.11200583315156</v>
       </c>
       <c r="W41" t="n">
-        <v>104.6007160804296</v>
+        <v>104.6007160804297</v>
       </c>
       <c r="X41" t="n">
         <v>125.0908480414857</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>7.054730523936229</v>
+        <v>7.054730523936257</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>41.66831962702666</v>
+        <v>41.66831962702669</v>
       </c>
       <c r="V43" t="n">
-        <v>7.497390686844625</v>
+        <v>7.497390686844653</v>
       </c>
       <c r="W43" t="n">
-        <v>41.88274569960763</v>
+        <v>41.88274569960765</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>170.2350928236582</v>
       </c>
       <c r="H44" t="n">
-        <v>90.45752060070188</v>
+        <v>90.45752060070147</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.671208906493643</v>
+        <v>6.671208906493661</v>
       </c>
       <c r="V44" t="n">
-        <v>83.11200583315153</v>
+        <v>83.11200583315156</v>
       </c>
       <c r="W44" t="n">
-        <v>104.6007160804296</v>
+        <v>104.6007160804297</v>
       </c>
       <c r="X44" t="n">
         <v>125.0908480414857</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>7.054730523936229</v>
+        <v>7.054730523936257</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>41.66831962702666</v>
+        <v>41.66831962702669</v>
       </c>
       <c r="V46" t="n">
-        <v>7.497390686844625</v>
+        <v>7.497390686844653</v>
       </c>
       <c r="W46" t="n">
-        <v>41.88274569960763</v>
+        <v>41.88274569960765</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70.20951418870716</v>
+        <v>171.7343568999383</v>
       </c>
       <c r="C11" t="n">
-        <v>70.20951418870716</v>
+        <v>171.7343568999383</v>
       </c>
       <c r="D11" t="n">
-        <v>70.20951418870716</v>
+        <v>98.59944628670193</v>
       </c>
       <c r="E11" t="n">
-        <v>70.20951418870716</v>
+        <v>78.92719553380472</v>
       </c>
       <c r="F11" t="n">
-        <v>5.792284920568346</v>
+        <v>78.92719553380472</v>
       </c>
       <c r="G11" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="H11" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="I11" t="n">
-        <v>25.7116585661116</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="J11" t="n">
-        <v>25.7116585661116</v>
+        <v>74.44670462156074</v>
       </c>
       <c r="K11" t="n">
-        <v>73.62316182403652</v>
+        <v>122.3582078794859</v>
       </c>
       <c r="L11" t="n">
-        <v>118.9638683880342</v>
+        <v>122.3582078794859</v>
       </c>
       <c r="M11" t="n">
-        <v>177.1951819919276</v>
+        <v>122.3582078794859</v>
       </c>
       <c r="N11" t="n">
-        <v>177.1951819919276</v>
+        <v>122.3582078794859</v>
       </c>
       <c r="O11" t="n">
-        <v>232.6668406369812</v>
+        <v>168.3067123775238</v>
       </c>
       <c r="P11" t="n">
-        <v>237.3364601073263</v>
+        <v>212.2092056004747</v>
       </c>
       <c r="Q11" t="n">
-        <v>274.9240679802547</v>
+        <v>249.7968134734034</v>
       </c>
       <c r="R11" t="n">
-        <v>274.9240679802547</v>
+        <v>274.9240679802533</v>
       </c>
       <c r="S11" t="n">
-        <v>289.6142460284173</v>
+        <v>289.6142460284161</v>
       </c>
       <c r="T11" t="n">
-        <v>289.6142460284173</v>
+        <v>282.4369692444778</v>
       </c>
       <c r="U11" t="n">
-        <v>289.6142460284173</v>
+        <v>244.8692675131747</v>
       </c>
       <c r="V11" t="n">
-        <v>289.6142460284173</v>
+        <v>244.8692675131747</v>
       </c>
       <c r="W11" t="n">
-        <v>216.4793354151805</v>
+        <v>171.7343568999383</v>
       </c>
       <c r="X11" t="n">
-        <v>143.3444248019438</v>
+        <v>171.7343568999383</v>
       </c>
       <c r="Y11" t="n">
-        <v>70.20951418870716</v>
+        <v>171.7343568999383</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="C12" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="D12" t="n">
-        <v>5.792284920568346</v>
+        <v>6.183671315634925</v>
       </c>
       <c r="E12" t="n">
-        <v>5.792284920568346</v>
+        <v>6.183671315634925</v>
       </c>
       <c r="F12" t="n">
-        <v>5.792284920568346</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="G12" t="n">
-        <v>5.792284920568346</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="H12" t="n">
-        <v>5.792284920568346</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="I12" t="n">
-        <v>5.792284920568346</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="J12" t="n">
-        <v>5.792284920568346</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="K12" t="n">
-        <v>5.792284920568346</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="L12" t="n">
-        <v>5.792284920568346</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="M12" t="n">
-        <v>5.792284920568346</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="N12" t="n">
-        <v>5.792284920568346</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="O12" t="n">
-        <v>74.54339350737787</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="P12" t="n">
-        <v>74.54339350737787</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.54339350737787</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="R12" t="n">
-        <v>74.54339350737787</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="S12" t="n">
-        <v>74.54339350737787</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="T12" t="n">
-        <v>74.54339350737787</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="U12" t="n">
-        <v>62.61723103306481</v>
+        <v>62.61723103306421</v>
       </c>
       <c r="V12" t="n">
-        <v>43.74738222504604</v>
+        <v>43.74738222504573</v>
       </c>
       <c r="W12" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="X12" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568322</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="C13" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="D13" t="n">
-        <v>5.792284920568346</v>
+        <v>70.6412090937302</v>
       </c>
       <c r="E13" t="n">
-        <v>5.792284920568346</v>
+        <v>137.6498285348188</v>
       </c>
       <c r="F13" t="n">
-        <v>5.792284920568346</v>
+        <v>137.6498285348188</v>
       </c>
       <c r="G13" t="n">
-        <v>51.64925404541334</v>
+        <v>137.6498285348188</v>
       </c>
       <c r="H13" t="n">
-        <v>51.64925404541334</v>
+        <v>137.6498285348188</v>
       </c>
       <c r="I13" t="n">
-        <v>51.64925404541334</v>
+        <v>137.6498285348188</v>
       </c>
       <c r="J13" t="n">
-        <v>51.64925404541334</v>
+        <v>209.3293544268518</v>
       </c>
       <c r="K13" t="n">
-        <v>51.64925404541334</v>
+        <v>226.2260953910492</v>
       </c>
       <c r="L13" t="n">
-        <v>51.64925404541334</v>
+        <v>226.2260953910492</v>
       </c>
       <c r="M13" t="n">
-        <v>123.3287799374466</v>
+        <v>226.2260953910492</v>
       </c>
       <c r="N13" t="n">
-        <v>123.3287799374466</v>
+        <v>226.2260953910492</v>
       </c>
       <c r="O13" t="n">
-        <v>181.2343817905637</v>
+        <v>226.2260953910492</v>
       </c>
       <c r="P13" t="n">
-        <v>181.2343817905637</v>
+        <v>226.2260953910492</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.2343817905637</v>
+        <v>226.2260953910492</v>
       </c>
       <c r="R13" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910492</v>
       </c>
       <c r="S13" t="n">
-        <v>219.6037517952378</v>
+        <v>219.6037517952361</v>
       </c>
       <c r="T13" t="n">
-        <v>206.4653541307982</v>
+        <v>206.4653541307968</v>
       </c>
       <c r="U13" t="n">
-        <v>133.5470355100675</v>
+        <v>133.5470355100664</v>
       </c>
       <c r="V13" t="n">
-        <v>95.14480672790459</v>
+        <v>95.14480672790371</v>
       </c>
       <c r="W13" t="n">
-        <v>22.00989611466791</v>
+        <v>22.00989611466731</v>
       </c>
       <c r="X13" t="n">
-        <v>10.30260464037451</v>
+        <v>10.3026046403742</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568322</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>225.1970167602775</v>
+        <v>152.0621061470411</v>
       </c>
       <c r="C14" t="n">
-        <v>225.1970167602775</v>
+        <v>152.0621061470411</v>
       </c>
       <c r="D14" t="n">
-        <v>225.1970167602775</v>
+        <v>152.0621061470411</v>
       </c>
       <c r="E14" t="n">
-        <v>225.1970167602775</v>
+        <v>152.0621061470411</v>
       </c>
       <c r="F14" t="n">
         <v>152.0621061470411</v>
@@ -5276,52 +5276,52 @@
         <v>5.792284920568322</v>
       </c>
       <c r="J14" t="n">
-        <v>74.44670462156046</v>
+        <v>74.44670462156074</v>
       </c>
       <c r="K14" t="n">
-        <v>74.44670462156046</v>
+        <v>74.44670462156074</v>
       </c>
       <c r="L14" t="n">
-        <v>119.7874111855581</v>
+        <v>106.8815260496677</v>
       </c>
       <c r="M14" t="n">
-        <v>178.0187247894515</v>
+        <v>165.1128396535614</v>
       </c>
       <c r="N14" t="n">
-        <v>238.3760607258014</v>
+        <v>165.1128396535614</v>
       </c>
       <c r="O14" t="n">
-        <v>238.3760607258014</v>
+        <v>220.5844982986153</v>
       </c>
       <c r="P14" t="n">
-        <v>274.9240679802535</v>
+        <v>264.4869915215663</v>
       </c>
       <c r="Q14" t="n">
-        <v>274.9240679802535</v>
+        <v>264.4869915215663</v>
       </c>
       <c r="R14" t="n">
-        <v>274.9240679802535</v>
+        <v>289.6142460284161</v>
       </c>
       <c r="S14" t="n">
         <v>289.6142460284161</v>
       </c>
       <c r="T14" t="n">
-        <v>289.6142460284161</v>
+        <v>282.4369692444778</v>
       </c>
       <c r="U14" t="n">
-        <v>289.6142460284161</v>
+        <v>244.8692675131747</v>
       </c>
       <c r="V14" t="n">
-        <v>289.6142460284161</v>
+        <v>225.1970167602775</v>
       </c>
       <c r="W14" t="n">
-        <v>289.6142460284161</v>
+        <v>152.0621061470411</v>
       </c>
       <c r="X14" t="n">
-        <v>225.1970167602775</v>
+        <v>152.0621061470411</v>
       </c>
       <c r="Y14" t="n">
-        <v>225.1970167602775</v>
+        <v>152.0621061470411</v>
       </c>
     </row>
     <row r="15">
@@ -5355,43 +5355,43 @@
         <v>5.792284920568322</v>
       </c>
       <c r="J15" t="n">
-        <v>74.54339350737784</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="K15" t="n">
-        <v>74.54339350737784</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="L15" t="n">
-        <v>74.54339350737784</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="M15" t="n">
-        <v>74.54339350737784</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="N15" t="n">
-        <v>74.54339350737784</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="O15" t="n">
-        <v>74.54339350737784</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="P15" t="n">
-        <v>74.54339350737784</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.54339350737784</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="R15" t="n">
-        <v>74.54339350737784</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="S15" t="n">
-        <v>74.54339350737784</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="T15" t="n">
-        <v>74.54339350737784</v>
+        <v>74.54339350737699</v>
       </c>
       <c r="U15" t="n">
-        <v>62.61723103306478</v>
+        <v>62.61723103306421</v>
       </c>
       <c r="V15" t="n">
-        <v>43.74738222504602</v>
+        <v>43.74738222504573</v>
       </c>
       <c r="W15" t="n">
         <v>5.792284920568322</v>
@@ -5425,58 +5425,58 @@
         <v>5.792284920568322</v>
       </c>
       <c r="G16" t="n">
-        <v>29.80624091452454</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="H16" t="n">
-        <v>82.86704360698528</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="I16" t="n">
-        <v>82.86704360698528</v>
+        <v>69.58224742167</v>
       </c>
       <c r="J16" t="n">
-        <v>82.86704360698528</v>
+        <v>141.261773313703</v>
       </c>
       <c r="K16" t="n">
-        <v>154.5465694990183</v>
+        <v>141.261773313703</v>
       </c>
       <c r="L16" t="n">
-        <v>226.2260953910512</v>
+        <v>212.941299205736</v>
       </c>
       <c r="M16" t="n">
-        <v>226.2260953910512</v>
+        <v>212.941299205736</v>
       </c>
       <c r="N16" t="n">
-        <v>226.2260953910512</v>
+        <v>212.941299205736</v>
       </c>
       <c r="O16" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910492</v>
       </c>
       <c r="P16" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910492</v>
       </c>
       <c r="Q16" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910492</v>
       </c>
       <c r="R16" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910492</v>
       </c>
       <c r="S16" t="n">
-        <v>219.6037517952378</v>
+        <v>219.6037517952361</v>
       </c>
       <c r="T16" t="n">
-        <v>206.4653541307982</v>
+        <v>206.4653541307968</v>
       </c>
       <c r="U16" t="n">
-        <v>133.5470355100675</v>
+        <v>133.5470355100664</v>
       </c>
       <c r="V16" t="n">
-        <v>95.14480672790457</v>
+        <v>95.14480672790371</v>
       </c>
       <c r="W16" t="n">
-        <v>22.00989611466789</v>
+        <v>22.00989611466731</v>
       </c>
       <c r="X16" t="n">
-        <v>10.30260464037449</v>
+        <v>10.3026046403742</v>
       </c>
       <c r="Y16" t="n">
         <v>5.792284920568322</v>
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>192.0717728635521</v>
+        <v>192.0717728635518</v>
       </c>
       <c r="C17" t="n">
-        <v>174.4670340247063</v>
+        <v>174.4670340247059</v>
       </c>
       <c r="D17" t="n">
-        <v>167.5591135195216</v>
+        <v>167.559113519522</v>
       </c>
       <c r="E17" t="n">
-        <v>133.1286390228433</v>
+        <v>133.1286390228436</v>
       </c>
       <c r="F17" t="n">
-        <v>73.50051233480195</v>
+        <v>73.50051233480201</v>
       </c>
       <c r="G17" t="n">
         <v>5.792284920568322</v>
       </c>
       <c r="H17" t="n">
-        <v>18.41124773260463</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="I17" t="n">
-        <v>90.09077362463761</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="J17" t="n">
-        <v>90.09077362463761</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="K17" t="n">
-        <v>90.09077362463761</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="L17" t="n">
-        <v>90.09077362463761</v>
+        <v>74.57566835231717</v>
       </c>
       <c r="M17" t="n">
-        <v>90.09077362463761</v>
+        <v>74.57566835231717</v>
       </c>
       <c r="N17" t="n">
-        <v>90.09077362463761</v>
+        <v>146.2551942443502</v>
       </c>
       <c r="O17" t="n">
-        <v>161.7702995166706</v>
+        <v>146.2551942443502</v>
       </c>
       <c r="P17" t="n">
         <v>217.9347201363831</v>
@@ -5537,10 +5537,10 @@
         <v>217.9347201363831</v>
       </c>
       <c r="R17" t="n">
-        <v>289.6142460284161</v>
+        <v>217.9347201363831</v>
       </c>
       <c r="S17" t="n">
-        <v>289.6142460284161</v>
+        <v>217.9347201363831</v>
       </c>
       <c r="T17" t="n">
         <v>289.6142460284161</v>
@@ -5552,13 +5552,13 @@
         <v>289.6142460284161</v>
       </c>
       <c r="W17" t="n">
-        <v>288.2033688598679</v>
+        <v>288.2033688598678</v>
       </c>
       <c r="X17" t="n">
-        <v>266.0953887003539</v>
+        <v>266.0953887003537</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.313834826108</v>
+        <v>227.3138348261077</v>
       </c>
     </row>
     <row r="18">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>192.0717728635525</v>
+        <v>192.071772863552</v>
       </c>
       <c r="C20" t="n">
-        <v>174.4670340247066</v>
+        <v>174.4670340247063</v>
       </c>
       <c r="D20" t="n">
-        <v>167.559113519522</v>
+        <v>167.5591135195216</v>
       </c>
       <c r="E20" t="n">
-        <v>133.1286390228437</v>
+        <v>133.1286390228436</v>
       </c>
       <c r="F20" t="n">
-        <v>73.50051233480198</v>
+        <v>73.50051233480204</v>
       </c>
       <c r="G20" t="n">
         <v>5.792284920568322</v>
@@ -5753,49 +5753,49 @@
         <v>5.792284920568322</v>
       </c>
       <c r="K20" t="n">
-        <v>77.4718108126013</v>
+        <v>54.68464592040607</v>
       </c>
       <c r="L20" t="n">
-        <v>77.4718108126013</v>
+        <v>54.68464592040607</v>
       </c>
       <c r="M20" t="n">
-        <v>149.1513367046343</v>
+        <v>54.68464592040607</v>
       </c>
       <c r="N20" t="n">
-        <v>149.1513367046343</v>
+        <v>126.3641718124391</v>
       </c>
       <c r="O20" t="n">
-        <v>220.8308625966673</v>
+        <v>126.3641718124391</v>
       </c>
       <c r="P20" t="n">
-        <v>289.6142460284161</v>
+        <v>198.043697704472</v>
       </c>
       <c r="Q20" t="n">
-        <v>289.6142460284161</v>
+        <v>198.043697704472</v>
       </c>
       <c r="R20" t="n">
-        <v>289.6142460284161</v>
+        <v>269.723223596505</v>
       </c>
       <c r="S20" t="n">
-        <v>289.6142460284161</v>
+        <v>269.723223596505</v>
       </c>
       <c r="T20" t="n">
-        <v>289.6142460284161</v>
+        <v>269.723223596505</v>
       </c>
       <c r="U20" t="n">
-        <v>289.6142460284161</v>
+        <v>269.723223596505</v>
       </c>
       <c r="V20" t="n">
         <v>289.6142460284161</v>
       </c>
       <c r="W20" t="n">
-        <v>288.2033688598682</v>
+        <v>288.2033688598679</v>
       </c>
       <c r="X20" t="n">
-        <v>266.0953887003542</v>
+        <v>266.0953887003539</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.3138348261084</v>
+        <v>227.3138348261079</v>
       </c>
     </row>
     <row r="21">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>192.0717728635523</v>
+        <v>192.0717728635518</v>
       </c>
       <c r="C23" t="n">
-        <v>174.4670340247064</v>
+        <v>174.467034024706</v>
       </c>
       <c r="D23" t="n">
-        <v>167.5591135195218</v>
+        <v>167.5591135195216</v>
       </c>
       <c r="E23" t="n">
-        <v>133.1286390228435</v>
+        <v>133.1286390228436</v>
       </c>
       <c r="F23" t="n">
-        <v>73.50051233480198</v>
+        <v>73.50051233480204</v>
       </c>
       <c r="G23" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="H23" t="n">
-        <v>5.792284920568326</v>
+        <v>18.41124773260457</v>
       </c>
       <c r="I23" t="n">
-        <v>5.792284920568326</v>
+        <v>18.41124773260457</v>
       </c>
       <c r="J23" t="n">
-        <v>77.47181081260135</v>
+        <v>18.41124773260457</v>
       </c>
       <c r="K23" t="n">
-        <v>77.47181081260135</v>
+        <v>18.41124773260457</v>
       </c>
       <c r="L23" t="n">
-        <v>77.47181081260135</v>
+        <v>18.41124773260457</v>
       </c>
       <c r="M23" t="n">
-        <v>149.1513367046344</v>
+        <v>90.09077362463756</v>
       </c>
       <c r="N23" t="n">
-        <v>149.1513367046344</v>
+        <v>90.09077362463756</v>
       </c>
       <c r="O23" t="n">
-        <v>220.8308625966674</v>
+        <v>90.09077362463756</v>
       </c>
       <c r="P23" t="n">
-        <v>220.8308625966674</v>
+        <v>161.7702995166705</v>
       </c>
       <c r="Q23" t="n">
-        <v>220.8308625966674</v>
+        <v>233.4498254087035</v>
       </c>
       <c r="R23" t="n">
-        <v>220.8308625966674</v>
+        <v>233.4498254087035</v>
       </c>
       <c r="S23" t="n">
-        <v>220.8308625966674</v>
+        <v>233.4498254087035</v>
       </c>
       <c r="T23" t="n">
-        <v>220.8308625966674</v>
+        <v>233.4498254087035</v>
       </c>
       <c r="U23" t="n">
-        <v>289.6142460284163</v>
+        <v>289.6142460284161</v>
       </c>
       <c r="V23" t="n">
-        <v>289.6142460284163</v>
+        <v>289.6142460284161</v>
       </c>
       <c r="W23" t="n">
-        <v>288.203368859868</v>
+        <v>288.2033688598676</v>
       </c>
       <c r="X23" t="n">
-        <v>266.095388700354</v>
+        <v>266.0953887003536</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.3138348261082</v>
+        <v>227.3138348261078</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="C24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="D24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="E24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="F24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="G24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="H24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="I24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="J24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="K24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="L24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="M24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="N24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="O24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="P24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="R24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="S24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="T24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="U24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="V24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="W24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="X24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="C25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="D25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="E25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="F25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="G25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="H25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="I25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="J25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="K25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="L25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="M25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="N25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="O25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="P25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="R25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="S25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="T25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="U25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="V25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="W25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="X25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.792284920568326</v>
+        <v>5.792284920568322</v>
       </c>
     </row>
     <row r="26">
@@ -6200,67 +6200,67 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>975.2411681339788</v>
+        <v>975.2411681339782</v>
       </c>
       <c r="C26" t="n">
-        <v>829.7381874012298</v>
+        <v>829.7381874012292</v>
       </c>
       <c r="D26" t="n">
-        <v>694.9320250021418</v>
+        <v>694.9320250021411</v>
       </c>
       <c r="E26" t="n">
-        <v>532.6033086115601</v>
+        <v>532.6033086115594</v>
       </c>
       <c r="F26" t="n">
-        <v>345.0769400296152</v>
+        <v>345.0769400296144</v>
       </c>
       <c r="G26" t="n">
         <v>149.4704707214771</v>
       </c>
       <c r="H26" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I26" t="n">
-        <v>34.44740769915457</v>
+        <v>61.40123032063607</v>
       </c>
       <c r="J26" t="n">
-        <v>169.6690705536078</v>
+        <v>85.48305658078942</v>
       </c>
       <c r="K26" t="n">
-        <v>224.6150227874709</v>
+        <v>85.48305658078942</v>
       </c>
       <c r="L26" t="n">
-        <v>650.9016930645088</v>
+        <v>85.48305658078942</v>
       </c>
       <c r="M26" t="n">
-        <v>650.9016930645088</v>
+        <v>511.769726857827</v>
       </c>
       <c r="N26" t="n">
-        <v>1077.188363341547</v>
+        <v>938.0563971348647</v>
       </c>
       <c r="O26" t="n">
-        <v>1297.673958975526</v>
+        <v>1189.285078639063</v>
       </c>
       <c r="P26" t="n">
-        <v>1348.610901174415</v>
+        <v>1558.80274192772</v>
       </c>
       <c r="Q26" t="n">
-        <v>1603.424798776588</v>
+        <v>1603.424798776587</v>
       </c>
       <c r="R26" t="n">
-        <v>1700.645757933628</v>
+        <v>1700.645757933627</v>
       </c>
       <c r="S26" t="n">
-        <v>1722.370384957729</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="T26" t="n">
-        <v>1722.370384957729</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="U26" t="n">
-        <v>1691.979960010364</v>
+        <v>1691.979960010363</v>
       </c>
       <c r="V26" t="n">
-        <v>1584.376608874456</v>
+        <v>1584.376608874455</v>
       </c>
       <c r="W26" t="n">
         <v>1455.067489812004</v>
@@ -6269,7 +6269,7 @@
         <v>1305.061267758587</v>
       </c>
       <c r="Y26" t="n">
-        <v>1138.381471990438</v>
+        <v>1138.381471990437</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="C27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="D27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="E27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="M27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="N27" t="n">
-        <v>34.44740769915457</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="O27" t="n">
-        <v>34.44740769915457</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="P27" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="R27" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="S27" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="T27" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="U27" t="n">
-        <v>76.91780024377377</v>
+        <v>76.91780024377375</v>
       </c>
       <c r="V27" t="n">
-        <v>65.22522821969363</v>
+        <v>65.22522821969362</v>
       </c>
       <c r="W27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="X27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Y27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
     </row>
     <row r="28">
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.44740769915457</v>
+        <v>75.4264387561667</v>
       </c>
       <c r="C28" t="n">
-        <v>34.44740769915457</v>
+        <v>75.4264387561667</v>
       </c>
       <c r="D28" t="n">
-        <v>34.44740769915457</v>
+        <v>75.4264387561667</v>
       </c>
       <c r="E28" t="n">
-        <v>34.44740769915457</v>
+        <v>75.4264387561667</v>
       </c>
       <c r="F28" t="n">
-        <v>34.44740769915457</v>
+        <v>75.4264387561667</v>
       </c>
       <c r="G28" t="n">
-        <v>34.44740769915457</v>
+        <v>75.4264387561667</v>
       </c>
       <c r="H28" t="n">
-        <v>34.44740769915457</v>
+        <v>75.4264387561667</v>
       </c>
       <c r="I28" t="n">
-        <v>34.44740769915457</v>
+        <v>75.4264387561667</v>
       </c>
       <c r="J28" t="n">
-        <v>34.44740769915457</v>
+        <v>75.4264387561667</v>
       </c>
       <c r="K28" t="n">
-        <v>34.44740769915457</v>
+        <v>75.4264387561667</v>
       </c>
       <c r="L28" t="n">
-        <v>34.44740769915457</v>
+        <v>75.4264387561667</v>
       </c>
       <c r="M28" t="n">
-        <v>34.44740769915457</v>
+        <v>75.4264387561667</v>
       </c>
       <c r="N28" t="n">
-        <v>34.44740769915457</v>
+        <v>99.09461837230741</v>
       </c>
       <c r="O28" t="n">
         <v>207.8621709343247</v>
@@ -6421,13 +6421,13 @@
         <v>104.9350562188074</v>
       </c>
       <c r="W28" t="n">
-        <v>38.97742238950934</v>
+        <v>38.97742238950932</v>
       </c>
       <c r="X28" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>975.2411681339775</v>
+        <v>975.2411681339779</v>
       </c>
       <c r="C29" t="n">
-        <v>829.7381874012284</v>
+        <v>829.7381874012286</v>
       </c>
       <c r="D29" t="n">
         <v>694.9320250021407</v>
@@ -6452,52 +6452,52 @@
         <v>345.076940029614</v>
       </c>
       <c r="G29" t="n">
-        <v>149.4704707214771</v>
+        <v>149.4704707214768</v>
       </c>
       <c r="H29" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I29" t="n">
-        <v>61.40123032063609</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J29" t="n">
-        <v>304.4957480179195</v>
+        <v>277.5419253964379</v>
       </c>
       <c r="K29" t="n">
-        <v>304.4957480179195</v>
+        <v>277.5419253964379</v>
       </c>
       <c r="L29" t="n">
-        <v>356.8709035578554</v>
+        <v>524.3889919041898</v>
       </c>
       <c r="M29" t="n">
-        <v>478.5547540908956</v>
+        <v>589.6547544840214</v>
       </c>
       <c r="N29" t="n">
-        <v>904.8414243679334</v>
+        <v>650.0275267657602</v>
       </c>
       <c r="O29" t="n">
-        <v>1331.128094644971</v>
+        <v>1076.314197042798</v>
       </c>
       <c r="P29" t="n">
-        <v>1700.645757933628</v>
+        <v>1445.831860331455</v>
       </c>
       <c r="Q29" t="n">
-        <v>1700.645757933628</v>
+        <v>1700.645757933627</v>
       </c>
       <c r="R29" t="n">
-        <v>1700.645757933628</v>
+        <v>1700.645757933627</v>
       </c>
       <c r="S29" t="n">
-        <v>1722.370384957729</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="T29" t="n">
-        <v>1722.370384957729</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="U29" t="n">
-        <v>1691.979960010364</v>
+        <v>1691.979960010363</v>
       </c>
       <c r="V29" t="n">
-        <v>1584.376608874456</v>
+        <v>1584.376608874455</v>
       </c>
       <c r="W29" t="n">
         <v>1455.067489812003</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="C30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="D30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="E30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I30" t="n">
-        <v>81.66668593414821</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J30" t="n">
-        <v>81.66668593414821</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K30" t="n">
-        <v>81.66668593414821</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L30" t="n">
-        <v>81.66668593414821</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="M30" t="n">
-        <v>81.66668593414821</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="N30" t="n">
-        <v>81.66668593414821</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="O30" t="n">
-        <v>81.66668593414821</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="P30" t="n">
-        <v>81.66668593414821</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="R30" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="S30" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="T30" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="U30" t="n">
-        <v>76.91780024377377</v>
+        <v>76.91780024377375</v>
       </c>
       <c r="V30" t="n">
-        <v>65.22522821969363</v>
+        <v>65.22522821969362</v>
       </c>
       <c r="W30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="X30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Y30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
     </row>
     <row r="31">
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="C31" t="n">
-        <v>43.74316597274824</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="D31" t="n">
-        <v>43.74316597274824</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="E31" t="n">
-        <v>43.74316597274824</v>
+        <v>96.09069405585001</v>
       </c>
       <c r="F31" t="n">
-        <v>43.74316597274824</v>
+        <v>96.09069405585001</v>
       </c>
       <c r="G31" t="n">
-        <v>96.6345840735315</v>
+        <v>96.09069405585001</v>
       </c>
       <c r="H31" t="n">
-        <v>96.6345840735315</v>
+        <v>96.09069405585001</v>
       </c>
       <c r="I31" t="n">
-        <v>96.6345840735315</v>
+        <v>96.09069405585001</v>
       </c>
       <c r="J31" t="n">
-        <v>96.6345840735315</v>
+        <v>96.09069405585001</v>
       </c>
       <c r="K31" t="n">
-        <v>96.6345840735315</v>
+        <v>96.09069405585001</v>
       </c>
       <c r="L31" t="n">
-        <v>96.6345840735315</v>
+        <v>96.09069405585001</v>
       </c>
       <c r="M31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.3182809166432</v>
       </c>
       <c r="N31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.3182809166432</v>
       </c>
       <c r="O31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.3182809166432</v>
       </c>
       <c r="P31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.3182809166432</v>
       </c>
       <c r="Q31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.3182809166432</v>
       </c>
       <c r="R31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.3182809166432</v>
       </c>
       <c r="S31" t="n">
         <v>207.8621709343247</v>
@@ -6658,13 +6658,13 @@
         <v>104.9350562188074</v>
       </c>
       <c r="W31" t="n">
-        <v>38.97742238950934</v>
+        <v>38.97742238950932</v>
       </c>
       <c r="X31" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>975.2411681339779</v>
+        <v>975.2411681339772</v>
       </c>
       <c r="C32" t="n">
-        <v>829.7381874012285</v>
+        <v>829.7381874012281</v>
       </c>
       <c r="D32" t="n">
-        <v>694.9320250021406</v>
+        <v>694.9320250021401</v>
       </c>
       <c r="E32" t="n">
-        <v>532.603308611559</v>
+        <v>532.6033086115585</v>
       </c>
       <c r="F32" t="n">
-        <v>345.076940029614</v>
+        <v>345.0769400296135</v>
       </c>
       <c r="G32" t="n">
-        <v>149.4704707214772</v>
+        <v>149.4704707214771</v>
       </c>
       <c r="H32" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I32" t="n">
-        <v>34.44740769915457</v>
+        <v>61.40123032063604</v>
       </c>
       <c r="J32" t="n">
-        <v>277.5419253964379</v>
+        <v>137.0900989975664</v>
       </c>
       <c r="K32" t="n">
-        <v>446.59652163238</v>
+        <v>293.9273182397526</v>
       </c>
       <c r="L32" t="n">
-        <v>498.9716771723159</v>
+        <v>345.00198677086</v>
       </c>
       <c r="M32" t="n">
-        <v>564.2374397521475</v>
+        <v>771.2886570478976</v>
       </c>
       <c r="N32" t="n">
-        <v>990.5241100291853</v>
+        <v>1197.575327324935</v>
       </c>
       <c r="O32" t="n">
-        <v>1211.009705663165</v>
+        <v>1623.861997601973</v>
       </c>
       <c r="P32" t="n">
-        <v>1580.527368951822</v>
+        <v>1623.861997601973</v>
       </c>
       <c r="Q32" t="n">
-        <v>1625.149425800688</v>
+        <v>1668.484054450839</v>
       </c>
       <c r="R32" t="n">
-        <v>1722.370384957729</v>
+        <v>1700.645757933627</v>
       </c>
       <c r="S32" t="n">
-        <v>1722.370384957729</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="T32" t="n">
-        <v>1722.370384957729</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="U32" t="n">
-        <v>1691.979960010364</v>
+        <v>1691.979960010363</v>
       </c>
       <c r="V32" t="n">
-        <v>1584.376608874456</v>
+        <v>1584.376608874455</v>
       </c>
       <c r="W32" t="n">
-        <v>1455.067489812004</v>
+        <v>1455.067489812003</v>
       </c>
       <c r="X32" t="n">
         <v>1305.061267758586</v>
       </c>
       <c r="Y32" t="n">
-        <v>1138.381471990437</v>
+        <v>1138.381471990436</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="C33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="D33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="E33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I33" t="n">
-        <v>34.44740769915457</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="J33" t="n">
-        <v>34.44740769915457</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="K33" t="n">
-        <v>34.44740769915457</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="L33" t="n">
-        <v>59.90457275094548</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="M33" t="n">
-        <v>59.90457275094548</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="N33" t="n">
-        <v>59.90457275094548</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="O33" t="n">
-        <v>59.90457275094548</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="P33" t="n">
-        <v>59.90457275094548</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="Q33" t="n">
-        <v>59.90457275094548</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="R33" t="n">
-        <v>59.90457275094548</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="S33" t="n">
-        <v>59.90457275094548</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="T33" t="n">
-        <v>81.66668593414846</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="U33" t="n">
-        <v>76.91780024377394</v>
+        <v>76.91780024377381</v>
       </c>
       <c r="V33" t="n">
-        <v>65.22522821969372</v>
+        <v>65.22522821969365</v>
       </c>
       <c r="W33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="X33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Y33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="C34" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="D34" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="E34" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F34" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G34" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H34" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I34" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J34" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K34" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L34" t="n">
-        <v>122.9465851015698</v>
+        <v>148.141792539098</v>
       </c>
       <c r="M34" t="n">
-        <v>122.9465851015698</v>
+        <v>148.141792539098</v>
       </c>
       <c r="N34" t="n">
-        <v>122.9465851015698</v>
+        <v>148.141792539098</v>
       </c>
       <c r="O34" t="n">
-        <v>122.9465851015698</v>
+        <v>207.3182809166434</v>
       </c>
       <c r="P34" t="n">
-        <v>122.9465851015698</v>
+        <v>207.3182809166434</v>
       </c>
       <c r="Q34" t="n">
-        <v>207.8621709343251</v>
+        <v>207.3182809166434</v>
       </c>
       <c r="R34" t="n">
-        <v>207.8621709343251</v>
+        <v>207.3182809166434</v>
       </c>
       <c r="S34" t="n">
-        <v>207.8621709343251</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="T34" t="n">
-        <v>201.9010500538241</v>
+        <v>201.9010500538238</v>
       </c>
       <c r="U34" t="n">
-        <v>136.160008217032</v>
+        <v>136.1600082170318</v>
       </c>
       <c r="V34" t="n">
-        <v>104.9350562188076</v>
+        <v>104.9350562188074</v>
       </c>
       <c r="W34" t="n">
-        <v>38.97742238950943</v>
+        <v>38.97742238950935</v>
       </c>
       <c r="X34" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>827.5379026594846</v>
+        <v>827.537902659486</v>
       </c>
       <c r="C35" t="n">
-        <v>705.6867520190565</v>
+        <v>705.6867520190574</v>
       </c>
       <c r="D35" t="n">
-        <v>594.5324197122893</v>
+        <v>594.53241971229</v>
       </c>
       <c r="E35" t="n">
-        <v>455.8555334140284</v>
+        <v>455.8555334140289</v>
       </c>
       <c r="F35" t="n">
-        <v>291.9809949244041</v>
+        <v>291.9809949244045</v>
       </c>
       <c r="G35" t="n">
-        <v>120.0263557085881</v>
+        <v>120.0263557085882</v>
       </c>
       <c r="H35" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="I35" t="n">
-        <v>78.79010407355125</v>
+        <v>78.79010407355116</v>
       </c>
       <c r="J35" t="n">
-        <v>344.1691896559117</v>
+        <v>277.3468680266859</v>
       </c>
       <c r="K35" t="n">
-        <v>344.1691896559117</v>
+        <v>631.9540124116905</v>
       </c>
       <c r="L35" t="n">
-        <v>419.7255038693312</v>
+        <v>707.5103266251099</v>
       </c>
       <c r="M35" t="n">
-        <v>774.3326482543355</v>
+        <v>795.9572478784249</v>
       </c>
       <c r="N35" t="n">
-        <v>864.9055918401071</v>
+        <v>886.5301914641965</v>
       </c>
       <c r="O35" t="n">
-        <v>1219.512736225111</v>
+        <v>972.2174577586718</v>
       </c>
       <c r="P35" t="n">
-        <v>1296.865979035892</v>
+        <v>1326.824602143676</v>
       </c>
       <c r="Q35" t="n">
-        <v>1364.669194558243</v>
+        <v>1394.627817666026</v>
       </c>
       <c r="R35" t="n">
-        <v>1364.669194558243</v>
+        <v>1409.574980255828</v>
       </c>
       <c r="S35" t="n">
-        <v>1409.574980255827</v>
+        <v>1409.574980255828</v>
       </c>
       <c r="T35" t="n">
-        <v>1432.756138929311</v>
+        <v>1432.756138929312</v>
       </c>
       <c r="U35" t="n">
-        <v>1426.017544074266</v>
+        <v>1426.017544074268</v>
       </c>
       <c r="V35" t="n">
-        <v>1342.066023030679</v>
+        <v>1342.066023030681</v>
       </c>
       <c r="W35" t="n">
-        <v>1236.408734060548</v>
+        <v>1236.40873406055</v>
       </c>
       <c r="X35" t="n">
-        <v>1110.054342099452</v>
+        <v>1110.054342099453</v>
       </c>
       <c r="Y35" t="n">
-        <v>967.0263764236231</v>
+        <v>967.0263764236247</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="C36" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="D36" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="E36" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="F36" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="G36" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="H36" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="I36" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="J36" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="K36" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="L36" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="M36" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="N36" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="O36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="P36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="R36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="S36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="T36" t="n">
-        <v>35.78111320680457</v>
+        <v>35.7811132068047</v>
       </c>
       <c r="U36" t="n">
-        <v>35.78111320680457</v>
+        <v>35.7811132068047</v>
       </c>
       <c r="V36" t="n">
-        <v>35.78111320680457</v>
+        <v>35.7811132068047</v>
       </c>
       <c r="W36" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="X36" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="Y36" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="C37" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="D37" t="n">
-        <v>44.55068339167171</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="E37" t="n">
-        <v>44.55068339167171</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="F37" t="n">
-        <v>44.55068339167171</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="G37" t="n">
-        <v>120.6232601659385</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="H37" t="n">
-        <v>120.6232601659385</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="I37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659389</v>
       </c>
       <c r="J37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659389</v>
       </c>
       <c r="K37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659389</v>
       </c>
       <c r="L37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659389</v>
       </c>
       <c r="M37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659389</v>
       </c>
       <c r="N37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659389</v>
       </c>
       <c r="O37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659389</v>
       </c>
       <c r="P37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659389</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659389</v>
       </c>
       <c r="R37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659389</v>
       </c>
       <c r="S37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659389</v>
       </c>
       <c r="T37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659389</v>
       </c>
       <c r="U37" t="n">
-        <v>78.53404842146716</v>
+        <v>78.53404842146742</v>
       </c>
       <c r="V37" t="n">
-        <v>70.96092651556356</v>
+        <v>70.9609265155637</v>
       </c>
       <c r="W37" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="X37" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>827.5379026594856</v>
+        <v>827.5379026594857</v>
       </c>
       <c r="C38" t="n">
         <v>705.6867520190572</v>
       </c>
       <c r="D38" t="n">
-        <v>594.53241971229</v>
+        <v>594.5324197122899</v>
       </c>
       <c r="E38" t="n">
-        <v>455.855533414029</v>
+        <v>455.8555334140289</v>
       </c>
       <c r="F38" t="n">
-        <v>291.9809949244047</v>
+        <v>291.9809949244045</v>
       </c>
       <c r="G38" t="n">
         <v>120.0263557085881</v>
@@ -7169,31 +7169,31 @@
         <v>28.65512277858623</v>
       </c>
       <c r="I38" t="n">
-        <v>28.65512277858623</v>
+        <v>78.79010407355125</v>
       </c>
       <c r="J38" t="n">
-        <v>127.5251501290001</v>
+        <v>177.6601314239651</v>
       </c>
       <c r="K38" t="n">
-        <v>482.1322945140047</v>
+        <v>255.7872423313118</v>
       </c>
       <c r="L38" t="n">
-        <v>557.6886087274241</v>
+        <v>331.3435565447313</v>
       </c>
       <c r="M38" t="n">
-        <v>800.3652010697517</v>
+        <v>466.3860673049701</v>
       </c>
       <c r="N38" t="n">
-        <v>1081.717749712774</v>
+        <v>747.7386159479925</v>
       </c>
       <c r="O38" t="n">
-        <v>1167.40501600725</v>
+        <v>1102.345760332997</v>
       </c>
       <c r="P38" t="n">
-        <v>1241.523116879622</v>
+        <v>1176.46386120537</v>
       </c>
       <c r="Q38" t="n">
-        <v>1309.326332401972</v>
+        <v>1244.26707672772</v>
       </c>
       <c r="R38" t="n">
         <v>1364.669194558244</v>
@@ -7202,10 +7202,10 @@
         <v>1409.574980255828</v>
       </c>
       <c r="T38" t="n">
-        <v>1432.756138929311</v>
+        <v>1432.756138929312</v>
       </c>
       <c r="U38" t="n">
-        <v>1426.017544074267</v>
+        <v>1426.017544074268</v>
       </c>
       <c r="V38" t="n">
         <v>1342.06602303068</v>
@@ -7214,10 +7214,10 @@
         <v>1236.408734060549</v>
       </c>
       <c r="X38" t="n">
-        <v>1110.054342099452</v>
+        <v>1110.054342099453</v>
       </c>
       <c r="Y38" t="n">
-        <v>967.026376423624</v>
+        <v>967.0263764236242</v>
       </c>
     </row>
     <row r="39">
@@ -7278,16 +7278,16 @@
         <v>28.65512277858623</v>
       </c>
       <c r="S39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680462</v>
       </c>
       <c r="T39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680462</v>
       </c>
       <c r="U39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680462</v>
       </c>
       <c r="V39" t="n">
-        <v>35.78111320680458</v>
+        <v>35.78111320680462</v>
       </c>
       <c r="W39" t="n">
         <v>28.65512277858623</v>
@@ -7333,40 +7333,40 @@
         <v>28.65512277858623</v>
       </c>
       <c r="K40" t="n">
-        <v>120.6232601659385</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="L40" t="n">
-        <v>120.6232601659385</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="M40" t="n">
-        <v>120.6232601659385</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="N40" t="n">
-        <v>120.6232601659385</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="O40" t="n">
-        <v>120.6232601659385</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="P40" t="n">
-        <v>120.6232601659385</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="R40" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="S40" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="T40" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="U40" t="n">
-        <v>78.53404842146718</v>
+        <v>78.53404842146725</v>
       </c>
       <c r="V40" t="n">
-        <v>70.96092651556357</v>
+        <v>70.96092651556361</v>
       </c>
       <c r="W40" t="n">
         <v>28.65512277858623</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>827.5379026594852</v>
+        <v>827.5379026594851</v>
       </c>
       <c r="C41" t="n">
-        <v>705.6867520190567</v>
+        <v>705.6867520190566</v>
       </c>
       <c r="D41" t="n">
         <v>594.5324197122895</v>
@@ -7397,10 +7397,10 @@
         <v>455.8555334140287</v>
       </c>
       <c r="F41" t="n">
-        <v>291.9809949244045</v>
+        <v>291.9809949244047</v>
       </c>
       <c r="G41" t="n">
-        <v>120.0263557085881</v>
+        <v>120.0263557085882</v>
       </c>
       <c r="H41" t="n">
         <v>28.65512277858623</v>
@@ -7409,40 +7409,40 @@
         <v>28.65512277858623</v>
       </c>
       <c r="J41" t="n">
-        <v>291.6166950765788</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="K41" t="n">
-        <v>369.7438059839254</v>
+        <v>106.7822336859329</v>
       </c>
       <c r="L41" t="n">
-        <v>369.7438059839254</v>
+        <v>106.7822336859329</v>
       </c>
       <c r="M41" t="n">
-        <v>458.1907272372405</v>
+        <v>461.3893780709375</v>
       </c>
       <c r="N41" t="n">
-        <v>812.7978716222451</v>
+        <v>551.962321656709</v>
       </c>
       <c r="O41" t="n">
-        <v>1167.40501600725</v>
+        <v>637.6495879511843</v>
       </c>
       <c r="P41" t="n">
-        <v>1241.523116879622</v>
+        <v>992.256732336189</v>
       </c>
       <c r="Q41" t="n">
-        <v>1309.326332401972</v>
+        <v>1270.251788611845</v>
       </c>
       <c r="R41" t="n">
-        <v>1364.669194558244</v>
+        <v>1390.653906442368</v>
       </c>
       <c r="S41" t="n">
         <v>1409.574980255828</v>
       </c>
       <c r="T41" t="n">
-        <v>1432.756138929311</v>
+        <v>1432.756138929312</v>
       </c>
       <c r="U41" t="n">
-        <v>1426.017544074267</v>
+        <v>1426.017544074268</v>
       </c>
       <c r="V41" t="n">
         <v>1342.06602303068</v>
@@ -7454,7 +7454,7 @@
         <v>1110.054342099452</v>
       </c>
       <c r="Y41" t="n">
-        <v>967.0263764236238</v>
+        <v>967.0263764236237</v>
       </c>
     </row>
     <row r="42">
@@ -7512,19 +7512,19 @@
         <v>28.65512277858623</v>
       </c>
       <c r="R42" t="n">
-        <v>35.78111320680464</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="S42" t="n">
-        <v>35.78111320680464</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="T42" t="n">
-        <v>35.78111320680464</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="U42" t="n">
-        <v>35.78111320680464</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="V42" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="W42" t="n">
         <v>28.65512277858623</v>
@@ -7579,31 +7579,31 @@
         <v>28.65512277858623</v>
       </c>
       <c r="N43" t="n">
-        <v>120.6232601659387</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="O43" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="P43" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="R43" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="S43" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="T43" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="U43" t="n">
-        <v>78.53404842146729</v>
+        <v>78.53404842146736</v>
       </c>
       <c r="V43" t="n">
-        <v>70.96092651556363</v>
+        <v>70.96092651556367</v>
       </c>
       <c r="W43" t="n">
         <v>28.65512277858623</v>
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>827.5379026594853</v>
+        <v>827.5379026594854</v>
       </c>
       <c r="C44" t="n">
-        <v>705.6867520190569</v>
+        <v>705.6867520190568</v>
       </c>
       <c r="D44" t="n">
-        <v>594.5324197122898</v>
+        <v>594.5324197122895</v>
       </c>
       <c r="E44" t="n">
-        <v>455.8555334140289</v>
+        <v>455.8555334140285</v>
       </c>
       <c r="F44" t="n">
-        <v>291.9809949244045</v>
+        <v>291.9809949244043</v>
       </c>
       <c r="G44" t="n">
-        <v>120.0263557085881</v>
+        <v>120.0263557085877</v>
       </c>
       <c r="H44" t="n">
         <v>28.65512277858623</v>
       </c>
       <c r="I44" t="n">
-        <v>78.79010407355121</v>
+        <v>78.79010407355119</v>
       </c>
       <c r="J44" t="n">
-        <v>78.79010407355121</v>
+        <v>197.2833298477062</v>
       </c>
       <c r="K44" t="n">
-        <v>156.9172149808978</v>
+        <v>551.8904742327109</v>
       </c>
       <c r="L44" t="n">
-        <v>232.4735291943172</v>
+        <v>627.4467884461302</v>
       </c>
       <c r="M44" t="n">
-        <v>320.9204504476323</v>
+        <v>715.8937096994453</v>
       </c>
       <c r="N44" t="n">
-        <v>675.5275948326369</v>
+        <v>806.4666532852168</v>
       </c>
       <c r="O44" t="n">
-        <v>761.2148611271122</v>
+        <v>892.1539195796921</v>
       </c>
       <c r="P44" t="n">
-        <v>1031.331276126316</v>
+        <v>966.2720204520645</v>
       </c>
       <c r="Q44" t="n">
-        <v>1309.326332401972</v>
+        <v>1244.26707672772</v>
       </c>
       <c r="R44" t="n">
         <v>1364.669194558244</v>
@@ -7676,10 +7676,10 @@
         <v>1409.574980255828</v>
       </c>
       <c r="T44" t="n">
-        <v>1432.756138929311</v>
+        <v>1432.756138929312</v>
       </c>
       <c r="U44" t="n">
-        <v>1426.017544074267</v>
+        <v>1426.017544074268</v>
       </c>
       <c r="V44" t="n">
         <v>1342.06602303068</v>
@@ -7691,7 +7691,7 @@
         <v>1110.054342099452</v>
       </c>
       <c r="Y44" t="n">
-        <v>967.0263764236239</v>
+        <v>967.026376423624</v>
       </c>
     </row>
     <row r="45">
@@ -7701,67 +7701,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>35.78111320680464</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="C45" t="n">
-        <v>35.78111320680464</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="D45" t="n">
-        <v>35.78111320680464</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="E45" t="n">
-        <v>35.78111320680464</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="F45" t="n">
-        <v>35.78111320680464</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="G45" t="n">
-        <v>35.78111320680464</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="H45" t="n">
-        <v>35.78111320680464</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="I45" t="n">
-        <v>35.78111320680464</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="J45" t="n">
-        <v>35.78111320680464</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="K45" t="n">
-        <v>35.78111320680464</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="L45" t="n">
-        <v>35.78111320680464</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="M45" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="N45" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="O45" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="P45" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="R45" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="S45" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="T45" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="U45" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="V45" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="W45" t="n">
         <v>28.65512277858623</v>
@@ -7770,7 +7770,7 @@
         <v>28.65512277858623</v>
       </c>
       <c r="Y45" t="n">
-        <v>35.78111320680464</v>
+        <v>28.65512277858623</v>
       </c>
     </row>
     <row r="46">
@@ -7786,61 +7786,61 @@
         <v>28.65512277858623</v>
       </c>
       <c r="D46" t="n">
-        <v>120.6232601659387</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="E46" t="n">
-        <v>120.6232601659387</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="F46" t="n">
-        <v>120.6232601659387</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="G46" t="n">
-        <v>120.6232601659387</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="H46" t="n">
-        <v>120.6232601659387</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="I46" t="n">
-        <v>120.6232601659387</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="J46" t="n">
-        <v>120.6232601659387</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="K46" t="n">
-        <v>120.6232601659387</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="L46" t="n">
-        <v>120.6232601659387</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="M46" t="n">
-        <v>120.6232601659387</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="N46" t="n">
-        <v>120.6232601659387</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="O46" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="P46" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="R46" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="S46" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="T46" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="U46" t="n">
-        <v>78.53404842146729</v>
+        <v>78.53404842146736</v>
       </c>
       <c r="V46" t="n">
-        <v>70.96092651556363</v>
+        <v>70.96092651556367</v>
       </c>
       <c r="W46" t="n">
         <v>28.65512277858623</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>144.7715381416158</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>168.3207433304991</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>155.2999281386853</v>
       </c>
       <c r="N11" t="n">
         <v>153.1524308331737</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>6.687366995951983</v>
       </c>
       <c r="P11" t="n">
-        <v>174.4902714228144</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>11.04622890071276</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>83.50443487543299</v>
+        <v>165.7239789931989</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,19 +8936,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>141.5843341553513</v>
       </c>
       <c r="O14" t="n">
-        <v>158.0874584001396</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.1521561497611</v>
+        <v>176.152156149761</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>60.1341355328513</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>168.3207433304991</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>364.6675835325313</v>
       </c>
       <c r="N26" t="n">
-        <v>362.52008622702</v>
+        <v>362.5200862270197</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>200.8243146122009</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>88.18866638734517</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10030,25 +10030,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>106.7396511863337</v>
       </c>
       <c r="L28" t="n">
-        <v>83.37349877393854</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>98.34817151022014</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>65.30021280116449</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>114.5411443216188</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10112,28 +10112,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>165.7239789931989</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>278.2129084750895</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>362.52008622702</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>367.4551137939858</v>
+        <v>367.4551137939856</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>8.390971177751915</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>76.937741419505</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10279,16 +10279,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>98.34817151022014</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,22 +10355,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>423.1492950168179</v>
       </c>
       <c r="N32" t="n">
-        <v>362.52008622702</v>
+        <v>362.5200862270198</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>367.4551137939856</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>169.7734840790315</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10437,10 +10437,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>34.46482392610613</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>88.18866638734515</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10513,19 +10513,19 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O34" t="n">
-        <v>111.3587261364776</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>114.5411443216188</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>100.6936733360818</v>
       </c>
       <c r="K35" t="n">
-        <v>165.7239789931989</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>268.8487102340295</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>271.6362404954838</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>3.267820139806645</v>
+        <v>283.3222661743761</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10741,19 +10741,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O37" t="n">
         <v>111.3587261364776</v>
@@ -10823,19 +10823,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>279.2727610885433</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>155.787546554558</v>
+        <v>137.4492755716735</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>271.6362404954841</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>20.45100771536809</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>111.3587261364776</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>165.7490353005846</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>133.0194935757527</v>
+        <v>4.938477494113272</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>268.8487102340298</v>
       </c>
       <c r="N41" t="n">
-        <v>266.7012129285182</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>271.6362404954841</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>283.322266174376</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11215,19 +11215,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>84.35660356808887</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>298.8004605236186</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11306,19 +11306,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>266.7012129285182</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>197.978095077608</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>88.18866638734515</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11452,13 +11452,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L46" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>108.8738430064009</v>
@@ -11470,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>168.6144048339939</v>
+        <v>168.6144048339936</v>
       </c>
       <c r="C11" t="n">
-        <v>151.1534549415209</v>
+        <v>151.1534549415206</v>
       </c>
       <c r="D11" t="n">
-        <v>140.5636047911963</v>
+        <v>68.16004328409196</v>
       </c>
       <c r="E11" t="n">
-        <v>167.8109332427751</v>
+        <v>148.3354049974066</v>
       </c>
       <c r="F11" t="n">
-        <v>128.9835519367673</v>
+        <v>192.7566089122245</v>
       </c>
       <c r="G11" t="n">
-        <v>200.7559086311548</v>
+        <v>128.3523471240505</v>
       </c>
       <c r="H11" t="n">
-        <v>120.9783364081986</v>
+        <v>120.9783364081983</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.105504016099232</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>37.19202471399032</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>113.6328216406482</v>
+        <v>113.6328216406479</v>
       </c>
       <c r="W11" t="n">
         <v>62.71797038082201</v>
       </c>
       <c r="X11" t="n">
-        <v>83.20810234187803</v>
+        <v>155.6116638489821</v>
       </c>
       <c r="Y11" t="n">
-        <v>99.71494031946258</v>
+        <v>172.1185018265666</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>168.6144048339939</v>
+        <v>168.6144048339936</v>
       </c>
       <c r="C14" t="n">
-        <v>151.1534549415209</v>
+        <v>151.1534549415206</v>
       </c>
       <c r="D14" t="n">
-        <v>140.5636047911963</v>
+        <v>140.563604791196</v>
       </c>
       <c r="E14" t="n">
-        <v>167.8109332427751</v>
+        <v>167.8109332427748</v>
       </c>
       <c r="F14" t="n">
-        <v>120.3530474051207</v>
+        <v>192.7566089122245</v>
       </c>
       <c r="G14" t="n">
-        <v>128.3523471240508</v>
+        <v>128.3523471240505</v>
       </c>
       <c r="H14" t="n">
-        <v>48.57477490109454</v>
+        <v>48.57477490109426</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.105504016099232</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>37.19202471399032</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>113.6328216406482</v>
+        <v>94.15729339527967</v>
       </c>
       <c r="W14" t="n">
-        <v>135.1215318879263</v>
+        <v>62.71797038082201</v>
       </c>
       <c r="X14" t="n">
-        <v>91.83860687352522</v>
+        <v>155.6116638489821</v>
       </c>
       <c r="Y14" t="n">
-        <v>172.1185018265669</v>
+        <v>172.1185018265666</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7.567280135845067e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24740,7 +24740,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-5.053378189940796e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>4.405364961712621e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>639212.3489503135</v>
+        <v>639212.3489503134</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>639212.3489503133</v>
+        <v>639212.3489503134</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>805144.3239753115</v>
+        <v>805144.3239753114</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>805144.3239753116</v>
+        <v>805144.3239753115</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>763790.9544337662</v>
+        <v>763790.9544337663</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>763790.9544337662</v>
+        <v>763790.9544337663</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>716866.7963774089</v>
+        <v>716866.7963774084</v>
       </c>
       <c r="C2" t="n">
         <v>716866.7963774086</v>
@@ -26320,40 +26320,40 @@
         <v>716866.7963774086</v>
       </c>
       <c r="E2" t="n">
-        <v>615160.1906027216</v>
+        <v>615160.1906027225</v>
       </c>
       <c r="F2" t="n">
-        <v>615160.1906027215</v>
+        <v>615160.1906027223</v>
       </c>
       <c r="G2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="H2" t="n">
         <v>718411.5486312481</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>718411.5486312478</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>718411.5486312476</v>
+      </c>
+      <c r="K2" t="n">
+        <v>718411.5486312476</v>
+      </c>
+      <c r="L2" t="n">
+        <v>718411.5486312475</v>
+      </c>
+      <c r="M2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="J2" t="n">
-        <v>718411.5486312477</v>
-      </c>
-      <c r="K2" t="n">
-        <v>718411.5486312478</v>
-      </c>
-      <c r="L2" t="n">
-        <v>718411.5486312477</v>
-      </c>
-      <c r="M2" t="n">
-        <v>718411.5486312481</v>
-      </c>
       <c r="N2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="O2" t="n">
+        <v>718411.5486312484</v>
+      </c>
+      <c r="P2" t="n">
         <v>718411.5486312482</v>
-      </c>
-      <c r="P2" t="n">
-        <v>718411.5486312481</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278326.464666879</v>
+        <v>278326.4646668792</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>106979.8107928508</v>
+        <v>106979.8107928505</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>163718.1536871232</v>
+        <v>163718.1536871234</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>106979.8107928508</v>
+        <v>106979.8107928505</v>
       </c>
       <c r="M3" t="n">
-        <v>18732.24943311807</v>
+        <v>18732.24943311793</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>70000.14188361788</v>
+        <v>70000.14188361815</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>366684.410336468</v>
+        <v>366684.4103364681</v>
       </c>
       <c r="F4" t="n">
-        <v>366684.410336468</v>
+        <v>366684.4103364681</v>
       </c>
       <c r="G4" t="n">
         <v>431842.1671902813</v>
@@ -26454,10 +26454,10 @@
         <v>436970.659685421</v>
       </c>
       <c r="O4" t="n">
+        <v>436970.6596854209</v>
+      </c>
+      <c r="P4" t="n">
         <v>436970.659685421</v>
-      </c>
-      <c r="P4" t="n">
-        <v>436970.6596854209</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24720.58373795486</v>
+        <v>24720.58373795487</v>
       </c>
       <c r="F5" t="n">
-        <v>24720.58373795485</v>
+        <v>24720.58373795487</v>
       </c>
       <c r="G5" t="n">
         <v>35962.69087988506</v>
@@ -26491,10 +26491,10 @@
         <v>35962.69087988506</v>
       </c>
       <c r="J5" t="n">
-        <v>47095.82966680984</v>
+        <v>47095.82966680983</v>
       </c>
       <c r="K5" t="n">
-        <v>47095.82966680984</v>
+        <v>47095.82966680983</v>
       </c>
       <c r="L5" t="n">
         <v>47095.82966680983</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>215623.2364456777</v>
+        <v>215618.8228678091</v>
       </c>
       <c r="C6" t="n">
-        <v>215623.2364456773</v>
+        <v>215618.8228678092</v>
       </c>
       <c r="D6" t="n">
-        <v>215623.2364456773</v>
+        <v>215618.8228678092</v>
       </c>
       <c r="E6" t="n">
-        <v>-54571.26813858027</v>
+        <v>-54866.27201866126</v>
       </c>
       <c r="F6" t="n">
-        <v>223755.1965282987</v>
+        <v>223460.1926482178</v>
       </c>
       <c r="G6" t="n">
-        <v>143626.8797682309</v>
+        <v>143626.879768231</v>
       </c>
       <c r="H6" t="n">
+        <v>250606.6905610817</v>
+      </c>
+      <c r="I6" t="n">
         <v>250606.6905610815</v>
       </c>
-      <c r="I6" t="n">
-        <v>250606.6905610816</v>
-      </c>
       <c r="J6" t="n">
-        <v>66697.66431826798</v>
+        <v>66697.66431826755</v>
       </c>
       <c r="K6" t="n">
-        <v>230415.8180053912</v>
+        <v>230415.818005391</v>
       </c>
       <c r="L6" t="n">
         <v>123436.0072125403</v>
@@ -26555,13 +26555,13 @@
         <v>218046.4445385402</v>
       </c>
       <c r="N6" t="n">
-        <v>236778.6939716581</v>
+        <v>236778.6939716583</v>
       </c>
       <c r="O6" t="n">
-        <v>166778.5520880405</v>
+        <v>166778.5520880404</v>
       </c>
       <c r="P6" t="n">
-        <v>236778.6939716582</v>
+        <v>236778.6939716583</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="F2" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="G2" t="n">
         <v>347.8442003205502</v>
@@ -26713,19 +26713,19 @@
         <v>221.2249408455859</v>
       </c>
       <c r="L2" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="M2" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="N2" t="n">
         <v>244.6402526369834</v>
       </c>
       <c r="O2" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="P2" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
     </row>
     <row r="3">
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710403</v>
       </c>
       <c r="F4" t="n">
         <v>72.40356150710403</v>
@@ -26808,19 +26808,19 @@
         <v>72.40356150710403</v>
       </c>
       <c r="I4" t="n">
-        <v>72.40356150710407</v>
+        <v>72.40356150710403</v>
       </c>
       <c r="J4" t="n">
-        <v>430.5925962394322</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="K4" t="n">
-        <v>430.5925962394322</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="L4" t="n">
-        <v>430.5925962394322</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="M4" t="n">
-        <v>358.1890347323276</v>
+        <v>358.1890347323279</v>
       </c>
       <c r="N4" t="n">
         <v>358.1890347323279</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>133.7247634910635</v>
+        <v>133.7247634910632</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.50017735452241</v>
+        <v>87.50017735452275</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133.7247634910634</v>
+        <v>133.7247634910632</v>
       </c>
       <c r="M2" t="n">
-        <v>23.41531179139758</v>
+        <v>23.41531179139741</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452235</v>
+        <v>87.50017735452269</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710403</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>358.1890347323281</v>
+        <v>358.1890347323279</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133.7247634910635</v>
+        <v>133.7247634910632</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452241</v>
+        <v>87.50017735452275</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710403</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="C11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="D11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="E11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="F11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="G11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="H11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="I11" t="n">
-        <v>214.1194368294867</v>
+        <v>193.998857389544</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>214.119436829487</v>
       </c>
       <c r="K11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="L11" t="n">
-        <v>214.1194368294867</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>214.1194368294867</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>214.1194368294867</v>
+        <v>197.8127222102864</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>214.119436829487</v>
       </c>
       <c r="Q11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="R11" t="n">
-        <v>177.69214277034</v>
+        <v>214.119436829487</v>
       </c>
       <c r="S11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="T11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="U11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="V11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="W11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="X11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="Y11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
     </row>
     <row r="12">
@@ -28172,13 +28172,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>147.8404053576353</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>214.119436829487</v>
       </c>
       <c r="G12" t="n">
         <v>137.114842254054</v>
@@ -28202,10 +28202,10 @@
         <v>84.19302733439827</v>
       </c>
       <c r="N12" t="n">
-        <v>71.86717946018493</v>
+        <v>71.86717946018491</v>
       </c>
       <c r="O12" t="n">
-        <v>157.6342306164457</v>
+        <v>88.18866638734515</v>
       </c>
       <c r="P12" t="n">
         <v>90.30752936669649</v>
@@ -28223,13 +28223,13 @@
         <v>199.2430083373</v>
       </c>
       <c r="U12" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="V12" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="W12" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -28251,16 +28251,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>214.119436829487</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>214.119436829487</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>214.1194368294867</v>
+        <v>167.7992659963099</v>
       </c>
       <c r="H13" t="n">
         <v>160.5226664330617</v>
@@ -28269,22 +28269,22 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J13" t="n">
-        <v>113.4412867354731</v>
+        <v>185.8448482425771</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7396511863337</v>
+        <v>123.8070663016846</v>
       </c>
       <c r="L13" t="n">
         <v>106.3821278759461</v>
       </c>
       <c r="M13" t="n">
-        <v>181.2774045135052</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N13" t="n">
         <v>98.34817151022014</v>
       </c>
       <c r="O13" t="n">
-        <v>169.8492330588181</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P13" t="n">
         <v>114.5411443216188</v>
@@ -28293,28 +28293,28 @@
         <v>135.4516218226007</v>
       </c>
       <c r="R13" t="n">
-        <v>214.1194368294867</v>
+        <v>168.6732614754589</v>
       </c>
       <c r="S13" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="T13" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="U13" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="V13" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="W13" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="X13" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="Y13" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="C14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="D14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="E14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="F14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="G14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="H14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="I14" t="n">
         <v>193.998857389544</v>
       </c>
       <c r="J14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="K14" t="n">
-        <v>82.21954411776589</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>214.1194368294867</v>
+        <v>201.0831892174758</v>
       </c>
       <c r="M14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="N14" t="n">
-        <v>214.1194368294867</v>
+        <v>11.56809667782234</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>214.119436829487</v>
       </c>
       <c r="P14" t="n">
-        <v>206.6906631239327</v>
+        <v>214.119436829487</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>123.0219517980703</v>
+        <v>214.119436829487</v>
       </c>
       <c r="S14" t="n">
-        <v>214.1194368294867</v>
+        <v>199.280873144474</v>
       </c>
       <c r="T14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="U14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="V14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="W14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="X14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="Y14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
     </row>
     <row r="15">
@@ -28427,7 +28427,7 @@
         <v>91.64914299614303</v>
       </c>
       <c r="J15" t="n">
-        <v>174.678426781107</v>
+        <v>174.6784267811061</v>
       </c>
       <c r="K15" t="n">
         <v>100.9154559462058</v>
@@ -28439,10 +28439,10 @@
         <v>84.19302733439827</v>
       </c>
       <c r="N15" t="n">
-        <v>71.86717946018493</v>
+        <v>71.86717946018491</v>
       </c>
       <c r="O15" t="n">
-        <v>88.18866638734517</v>
+        <v>88.18866638734515</v>
       </c>
       <c r="P15" t="n">
         <v>90.30752936669649</v>
@@ -28460,13 +28460,13 @@
         <v>199.2430083373</v>
       </c>
       <c r="U15" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="V15" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="W15" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -28497,19 +28497,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>192.0557872023263</v>
+        <v>167.7992659963099</v>
       </c>
       <c r="H16" t="n">
-        <v>214.1194368294867</v>
+        <v>160.5226664330617</v>
       </c>
       <c r="I16" t="n">
-        <v>149.6851312728186</v>
+        <v>214.119436829487</v>
       </c>
       <c r="J16" t="n">
-        <v>113.4412867354731</v>
+        <v>185.8448482425771</v>
       </c>
       <c r="K16" t="n">
-        <v>179.1432126934378</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L16" t="n">
         <v>178.7856893830501</v>
@@ -28521,7 +28521,7 @@
         <v>98.34817151022014</v>
       </c>
       <c r="O16" t="n">
-        <v>111.3587261364776</v>
+        <v>124.7777121822485</v>
       </c>
       <c r="P16" t="n">
         <v>114.5411443216188</v>
@@ -28533,25 +28533,25 @@
         <v>168.6732614754589</v>
       </c>
       <c r="S16" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="T16" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="U16" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="V16" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="W16" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="X16" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.1194368294867</v>
+        <v>214.119436829487</v>
       </c>
     </row>
     <row r="17">
@@ -28579,10 +28579,10 @@
         <v>347.8442003205502</v>
       </c>
       <c r="H17" t="n">
-        <v>347.8442003205502</v>
+        <v>335.0977732376853</v>
       </c>
       <c r="I17" t="n">
-        <v>266.402418896648</v>
+        <v>193.998857389544</v>
       </c>
       <c r="J17" t="n">
         <v>144.7715381416158</v>
@@ -28591,31 +28591,31 @@
         <v>165.7239789931989</v>
       </c>
       <c r="L17" t="n">
-        <v>168.3207433304991</v>
+        <v>237.7989084130737</v>
       </c>
       <c r="M17" t="n">
         <v>155.2999281386853</v>
       </c>
       <c r="N17" t="n">
-        <v>153.1524308331737</v>
+        <v>225.5559923402777</v>
       </c>
       <c r="O17" t="n">
-        <v>230.4910199072436</v>
+        <v>158.0874584001396</v>
       </c>
       <c r="P17" t="n">
-        <v>226.5052220787411</v>
+        <v>242.1770455861355</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.1521561497611</v>
+        <v>176.152156149761</v>
       </c>
       <c r="R17" t="n">
-        <v>261.1419331781568</v>
+        <v>188.7383716710528</v>
       </c>
       <c r="S17" t="n">
         <v>199.280873144474</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2249408455859</v>
+        <v>293.62850235269</v>
       </c>
       <c r="U17" t="n">
         <v>251.311461543477</v>
@@ -28676,10 +28676,10 @@
         <v>84.19302733439827</v>
       </c>
       <c r="N18" t="n">
-        <v>71.86717946018493</v>
+        <v>71.86717946018491</v>
       </c>
       <c r="O18" t="n">
-        <v>88.18866638734517</v>
+        <v>88.18866638734515</v>
       </c>
       <c r="P18" t="n">
         <v>90.30752936669649</v>
@@ -28825,28 +28825,28 @@
         <v>144.7715381416158</v>
       </c>
       <c r="K20" t="n">
-        <v>238.1275405003029</v>
+        <v>215.1102022253582</v>
       </c>
       <c r="L20" t="n">
         <v>168.3207433304991</v>
       </c>
       <c r="M20" t="n">
-        <v>227.7034896457893</v>
+        <v>155.2999281386853</v>
       </c>
       <c r="N20" t="n">
-        <v>153.1524308331737</v>
+        <v>225.5559923402777</v>
       </c>
       <c r="O20" t="n">
-        <v>230.4910199072436</v>
+        <v>158.0874584001396</v>
       </c>
       <c r="P20" t="n">
-        <v>239.2516491616061</v>
+        <v>242.1770455861355</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.1521561497611</v>
+        <v>176.152156149761</v>
       </c>
       <c r="R20" t="n">
-        <v>188.7383716710528</v>
+        <v>261.1419331781568</v>
       </c>
       <c r="S20" t="n">
         <v>199.280873144474</v>
@@ -28858,7 +28858,7 @@
         <v>251.311461543477</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="W20" t="n">
         <v>347.8442003205502</v>
@@ -28913,10 +28913,10 @@
         <v>84.19302733439827</v>
       </c>
       <c r="N21" t="n">
-        <v>71.86717946018493</v>
+        <v>71.86717946018491</v>
       </c>
       <c r="O21" t="n">
-        <v>88.18866638734517</v>
+        <v>88.18866638734515</v>
       </c>
       <c r="P21" t="n">
         <v>90.30752936669649</v>
@@ -29053,13 +29053,13 @@
         <v>347.8442003205502</v>
       </c>
       <c r="H23" t="n">
-        <v>335.0977732376853</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="I23" t="n">
         <v>193.998857389544</v>
       </c>
       <c r="J23" t="n">
-        <v>217.1750996487199</v>
+        <v>144.7715381416158</v>
       </c>
       <c r="K23" t="n">
         <v>165.7239789931989</v>
@@ -29068,19 +29068,19 @@
         <v>168.3207433304991</v>
       </c>
       <c r="M23" t="n">
-        <v>227.7034896457894</v>
+        <v>227.7034896457893</v>
       </c>
       <c r="N23" t="n">
         <v>153.1524308331737</v>
       </c>
       <c r="O23" t="n">
-        <v>230.4910199072437</v>
+        <v>158.0874584001396</v>
       </c>
       <c r="P23" t="n">
-        <v>169.7734840790315</v>
+        <v>242.1770455861355</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.1521561497611</v>
+        <v>248.5557176568651</v>
       </c>
       <c r="R23" t="n">
         <v>188.7383716710528</v>
@@ -29092,7 +29092,7 @@
         <v>221.2249408455859</v>
       </c>
       <c r="U23" t="n">
-        <v>320.7896266260516</v>
+        <v>308.0431995431867</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -29150,10 +29150,10 @@
         <v>84.19302733439827</v>
       </c>
       <c r="N24" t="n">
-        <v>71.86717946018493</v>
+        <v>71.86717946018491</v>
       </c>
       <c r="O24" t="n">
-        <v>88.18866638734517</v>
+        <v>88.18866638734515</v>
       </c>
       <c r="P24" t="n">
         <v>90.30752936669649</v>
@@ -29293,25 +29293,25 @@
         <v>221.2249408455859</v>
       </c>
       <c r="I26" t="n">
-        <v>193.998857389544</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>165.7239789931989</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>221.2249408455859</v>
-      </c>
-      <c r="K26" t="n">
-        <v>221.2249408455859</v>
-      </c>
-      <c r="L26" t="n">
-        <v>181.2521250194809</v>
-      </c>
-      <c r="M26" t="n">
-        <v>155.2999281386853</v>
       </c>
       <c r="N26" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>211.0294887416745</v>
       </c>
       <c r="P26" t="n">
         <v>221.2249408455859</v>
@@ -29375,7 +29375,7 @@
         <v>91.64914299614303</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K27" t="n">
         <v>100.9154559462058</v>
@@ -29387,13 +29387,13 @@
         <v>84.19302733439827</v>
       </c>
       <c r="N27" t="n">
-        <v>71.86717946018493</v>
+        <v>119.5634201015926</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>88.18866638734515</v>
       </c>
       <c r="P27" t="n">
-        <v>138.0037700081042</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>110.7916225242058</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -29454,25 +29454,25 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J28" t="n">
-        <v>113.4412867354731</v>
+        <v>79.80504541274975</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>23.00862910200758</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M28" t="n">
         <v>108.8738430064009</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>122.255423647736</v>
       </c>
       <c r="O28" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q28" t="n">
         <v>135.4516218226007</v>
@@ -29530,22 +29530,22 @@
         <v>221.2249408455859</v>
       </c>
       <c r="I29" t="n">
-        <v>221.2249408455859</v>
+        <v>193.998857389544</v>
       </c>
       <c r="J29" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="K29" t="n">
-        <v>165.7239789931989</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
         <v>221.2249408455859</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
       <c r="N29" t="n">
-        <v>221.2249408455859</v>
+        <v>214.1350290975563</v>
       </c>
       <c r="O29" t="n">
         <v>221.2249408455859</v>
@@ -29554,10 +29554,10 @@
         <v>221.2249408455859</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.1521561497611</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="R29" t="n">
-        <v>123.0219517980703</v>
+        <v>180.3474004933009</v>
       </c>
       <c r="S29" t="n">
         <v>221.2249408455859</v>
@@ -29609,31 +29609,31 @@
         <v>110.026926034905</v>
       </c>
       <c r="I30" t="n">
-        <v>139.3453836375507</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K30" t="n">
-        <v>23.97771452670083</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L30" t="n">
-        <v>88.90283864918123</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>84.19302733439827</v>
       </c>
       <c r="N30" t="n">
-        <v>71.86717946018493</v>
+        <v>71.86717946018491</v>
       </c>
       <c r="O30" t="n">
-        <v>88.18866638734517</v>
+        <v>88.18866638734515</v>
       </c>
       <c r="P30" t="n">
         <v>90.30752936669649</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.7916225242058</v>
+        <v>158.4878631656135</v>
       </c>
       <c r="R30" t="n">
         <v>131.4816003936965</v>
@@ -29670,19 +29670,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>176.6364759204396</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>208.6999084614131</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>221.2249408455859</v>
+        <v>167.7992659963099</v>
       </c>
       <c r="H31" t="n">
         <v>160.5226664330617</v>
@@ -29694,7 +29694,7 @@
         <v>113.4412867354731</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L31" t="n">
         <v>106.3821278759461</v>
@@ -29703,22 +29703,22 @@
         <v>221.2249408455859</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O31" t="n">
-        <v>111.3587261364776</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>114.5411443216188</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.1086634448492</v>
+        <v>135.4516218226007</v>
       </c>
       <c r="R31" t="n">
         <v>168.6732614754589</v>
       </c>
       <c r="S31" t="n">
-        <v>220.675556989342</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="T31" t="n">
         <v>221.2249408455859</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="C32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="D32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="E32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="F32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="G32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="H32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="I32" t="n">
-        <v>193.998857389544</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="J32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="K32" t="n">
-        <v>12.34078484217773</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>221.2249408455858</v>
+        <v>219.9113176043449</v>
       </c>
       <c r="M32" t="n">
-        <v>221.2249408455858</v>
+        <v>162.7432293612993</v>
       </c>
       <c r="N32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="P32" t="n">
-        <v>221.2249408455858</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="R32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="S32" t="n">
-        <v>199.280873144474</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="T32" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="U32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="V32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="W32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="X32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="Y32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I33" t="n">
-        <v>91.64914299614303</v>
+        <v>139.3453836375508</v>
       </c>
       <c r="J33" t="n">
         <v>105.2328625520064</v>
@@ -29855,16 +29855,16 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L33" t="n">
-        <v>114.6171467823034</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M33" t="n">
         <v>84.19302733439827</v>
       </c>
       <c r="N33" t="n">
-        <v>37.4023555340788</v>
+        <v>71.86717946018491</v>
       </c>
       <c r="O33" t="n">
-        <v>88.18866638734517</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>90.30752936669649</v>
@@ -29879,16 +29879,16 @@
         <v>167.4356349622666</v>
       </c>
       <c r="T33" t="n">
-        <v>221.2249408455858</v>
+        <v>199.2430083373</v>
       </c>
       <c r="U33" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="V33" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="W33" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -29934,43 +29934,43 @@
         <v>106.7396511863337</v>
       </c>
       <c r="L34" t="n">
-        <v>195.7752363632342</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N34" t="n">
-        <v>98.34817151022014</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>171.1329568208669</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q34" t="n">
-        <v>221.2249408455858</v>
+        <v>70.10866344484918</v>
       </c>
       <c r="R34" t="n">
         <v>168.6732614754589</v>
       </c>
       <c r="S34" t="n">
-        <v>220.675556989342</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="T34" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="U34" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="V34" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="W34" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="X34" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="C35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="D35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="E35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="F35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="G35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="H35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="I35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="J35" t="n">
-        <v>243.7346053759668</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>199.767601154362</v>
       </c>
       <c r="L35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="M35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="N35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="O35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="P35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="Q35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="R35" t="n">
-        <v>188.7383716710528</v>
+        <v>138.1200958281732</v>
       </c>
       <c r="S35" t="n">
-        <v>244.6402526369834</v>
+        <v>199.280873144474</v>
       </c>
       <c r="T35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="U35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="V35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="W35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="X35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="Y35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
     </row>
     <row r="36">
@@ -30098,10 +30098,10 @@
         <v>84.19302733439827</v>
       </c>
       <c r="N36" t="n">
-        <v>71.86717946018493</v>
+        <v>71.86717946018491</v>
       </c>
       <c r="O36" t="n">
-        <v>95.38663651685866</v>
+        <v>88.18866638734515</v>
       </c>
       <c r="P36" t="n">
         <v>90.30752936669649</v>
@@ -30116,7 +30116,7 @@
         <v>167.4356349622666</v>
       </c>
       <c r="T36" t="n">
-        <v>199.2430083373</v>
+        <v>206.4409784668136</v>
       </c>
       <c r="U36" t="n">
         <v>225.9263376790566</v>
@@ -30125,7 +30125,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -30147,7 +30147,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>164.6715948496118</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -30156,28 +30156,28 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>244.6402526369834</v>
+        <v>167.7992659963099</v>
       </c>
       <c r="H37" t="n">
         <v>160.5226664330617</v>
       </c>
       <c r="I37" t="n">
-        <v>149.6851312728186</v>
+        <v>242.582239744892</v>
       </c>
       <c r="J37" t="n">
-        <v>113.4412867354731</v>
+        <v>79.80504541274975</v>
       </c>
       <c r="K37" t="n">
         <v>106.7396511863337</v>
       </c>
       <c r="L37" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>98.34817151022014</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30198,13 +30198,13 @@
         <v>227.1264505172819</v>
       </c>
       <c r="U37" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="V37" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="W37" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -30241,7 +30241,7 @@
         <v>244.6402526369834</v>
       </c>
       <c r="I38" t="n">
-        <v>193.998857389544</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="J38" t="n">
         <v>244.6402526369834</v>
@@ -30253,7 +30253,7 @@
         <v>244.6402526369834</v>
       </c>
       <c r="M38" t="n">
-        <v>244.6402526369834</v>
+        <v>154.2572290925055</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30335,10 +30335,10 @@
         <v>84.19302733439827</v>
       </c>
       <c r="N39" t="n">
-        <v>71.86717946018493</v>
+        <v>71.86717946018491</v>
       </c>
       <c r="O39" t="n">
-        <v>88.18866638734517</v>
+        <v>88.18866638734515</v>
       </c>
       <c r="P39" t="n">
         <v>90.30752936669649</v>
@@ -30350,7 +30350,7 @@
         <v>131.4816003936965</v>
       </c>
       <c r="S39" t="n">
-        <v>167.4356349622666</v>
+        <v>174.6336050917801</v>
       </c>
       <c r="T39" t="n">
         <v>199.2430083373</v>
@@ -30359,7 +30359,7 @@
         <v>225.9263376790566</v>
       </c>
       <c r="V39" t="n">
-        <v>239.9985572789388</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>244.6402526369834</v>
@@ -30402,10 +30402,10 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J40" t="n">
-        <v>92.99027902010499</v>
+        <v>113.4412867354731</v>
       </c>
       <c r="K40" t="n">
-        <v>199.6367596584067</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L40" t="n">
         <v>106.3821278759461</v>
@@ -30417,13 +30417,13 @@
         <v>98.34817151022014</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P40" t="n">
         <v>114.5411443216188</v>
       </c>
       <c r="Q40" t="n">
-        <v>135.4516218226007</v>
+        <v>228.3487302946738</v>
       </c>
       <c r="R40" t="n">
         <v>168.6732614754589</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="C41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="D41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="E41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="F41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="G41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="H41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="I41" t="n">
         <v>193.998857389544</v>
       </c>
       <c r="J41" t="n">
-        <v>244.6402526369834</v>
+        <v>144.7715381416158</v>
       </c>
       <c r="K41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="L41" t="n">
-        <v>35.30124975474644</v>
+        <v>163.3822658363858</v>
       </c>
       <c r="M41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="N41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="O41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="P41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="Q41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="R41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="S41" t="n">
-        <v>244.6402526369834</v>
+        <v>218.3930689156454</v>
       </c>
       <c r="T41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="U41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="V41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="W41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="X41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="Y41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
     </row>
     <row r="42">
@@ -30566,16 +30566,16 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L42" t="n">
-        <v>88.90283864918123</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>84.19302733439827</v>
       </c>
       <c r="N42" t="n">
-        <v>71.86717946018493</v>
+        <v>71.86717946018491</v>
       </c>
       <c r="O42" t="n">
-        <v>88.18866638734517</v>
+        <v>88.18866638734515</v>
       </c>
       <c r="P42" t="n">
         <v>90.30752936669649</v>
@@ -30584,7 +30584,7 @@
         <v>110.7916225242058</v>
       </c>
       <c r="R42" t="n">
-        <v>138.6795705232101</v>
+        <v>131.4816003936965</v>
       </c>
       <c r="S42" t="n">
         <v>167.4356349622666</v>
@@ -30596,10 +30596,10 @@
         <v>225.9263376790566</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>239.9985572789388</v>
       </c>
       <c r="W42" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -30639,22 +30639,22 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J43" t="n">
-        <v>79.80504541274975</v>
+        <v>113.4412867354731</v>
       </c>
       <c r="K43" t="n">
         <v>106.7396511863337</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N43" t="n">
-        <v>191.2452799822933</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>111.3587261364776</v>
+        <v>204.2558346085508</v>
       </c>
       <c r="P43" t="n">
         <v>114.5411443216188</v>
@@ -30672,13 +30672,13 @@
         <v>227.1264505172819</v>
       </c>
       <c r="U43" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="V43" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="W43" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="C44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="D44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="E44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="F44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="G44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="H44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="I44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="J44" t="n">
-        <v>60.41493457352697</v>
+        <v>95.36505001414311</v>
       </c>
       <c r="K44" t="n">
-        <v>244.6402526369834</v>
+        <v>225.1125532019082</v>
       </c>
       <c r="L44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="M44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="N44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="O44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="P44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="Q44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="R44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="S44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="T44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="U44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="V44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="W44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="X44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="Y44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
     </row>
     <row r="45">
@@ -30797,7 +30797,7 @@
         <v>91.64914299614303</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K45" t="n">
         <v>100.9154559462058</v>
@@ -30806,13 +30806,13 @@
         <v>88.90283864918123</v>
       </c>
       <c r="M45" t="n">
-        <v>84.19302733439827</v>
+        <v>91.39099746391184</v>
       </c>
       <c r="N45" t="n">
-        <v>71.86717946018493</v>
+        <v>71.86717946018491</v>
       </c>
       <c r="O45" t="n">
-        <v>88.18866638734517</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>90.30752936669649</v>
@@ -30836,13 +30836,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>212.8806659068179</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -30858,7 +30858,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>241.5125814902855</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -30876,13 +30876,13 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J46" t="n">
-        <v>79.80504541274975</v>
+        <v>113.4412867354731</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30891,13 +30891,13 @@
         <v>98.34817151022014</v>
       </c>
       <c r="O46" t="n">
-        <v>111.3587261364776</v>
+        <v>204.2558346085508</v>
       </c>
       <c r="P46" t="n">
-        <v>114.5411443216188</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.1086634448492</v>
+        <v>70.10866344484918</v>
       </c>
       <c r="R46" t="n">
         <v>168.6732614754589</v>
@@ -30909,13 +30909,13 @@
         <v>227.1264505172819</v>
       </c>
       <c r="U46" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="V46" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="W46" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.427392054493532</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H11" t="n">
         <v>4.377028878081886</v>
@@ -31759,40 +31759,40 @@
         <v>16.47703218086191</v>
       </c>
       <c r="J11" t="n">
-        <v>36.27436638507044</v>
+        <v>36.27436638507045</v>
       </c>
       <c r="K11" t="n">
-        <v>54.36587205178166</v>
+        <v>54.36587205178167</v>
       </c>
       <c r="L11" t="n">
-        <v>67.4456716394881</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M11" t="n">
-        <v>75.04630508858745</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N11" t="n">
-        <v>76.26063276341721</v>
+        <v>76.26063276341722</v>
       </c>
       <c r="O11" t="n">
-        <v>72.01075302154713</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P11" t="n">
-        <v>61.45951167623806</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q11" t="n">
-        <v>46.15353372468843</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R11" t="n">
-        <v>26.84716614307935</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S11" t="n">
-        <v>9.739196441771369</v>
+        <v>9.739196441771371</v>
       </c>
       <c r="T11" t="n">
-        <v>1.870908718545437</v>
+        <v>1.870908718545438</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03419136435948255</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2286749091566102</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H12" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I12" t="n">
-        <v>7.873237003856976</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J12" t="n">
-        <v>21.60476411466027</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K12" t="n">
-        <v>36.92598302815315</v>
+        <v>36.92598302815316</v>
       </c>
       <c r="L12" t="n">
-        <v>49.65154113069294</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M12" t="n">
-        <v>57.94100658762004</v>
+        <v>57.94100658762006</v>
       </c>
       <c r="N12" t="n">
-        <v>59.47453262314838</v>
+        <v>59.47453262314839</v>
       </c>
       <c r="O12" t="n">
-        <v>54.40757805709927</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P12" t="n">
-        <v>43.66687804763376</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.19015156181572</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R12" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S12" t="n">
-        <v>4.247536141571244</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9217203575215996</v>
+        <v>0.9217203575215999</v>
       </c>
       <c r="U12" t="n">
         <v>0.01504440191819805</v>
@@ -31914,7 +31914,7 @@
         <v>1.704506074377875</v>
       </c>
       <c r="I13" t="n">
-        <v>5.765343654439681</v>
+        <v>5.765343654439682</v>
       </c>
       <c r="J13" t="n">
         <v>13.55413470392303</v>
@@ -31926,13 +31926,13 @@
         <v>28.50254840529218</v>
       </c>
       <c r="M13" t="n">
-        <v>30.05194094120416</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N13" t="n">
-        <v>29.33737295501305</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O13" t="n">
-        <v>27.09781231536522</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P13" t="n">
         <v>23.18685972752886</v>
@@ -31941,13 +31941,13 @@
         <v>16.05337980684519</v>
       </c>
       <c r="R13" t="n">
-        <v>8.620129901710593</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S13" t="n">
-        <v>3.341041047630248</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8191389109995914</v>
+        <v>0.8191389109995916</v>
       </c>
       <c r="U13" t="n">
         <v>0.01045709248084586</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.427392054493532</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H14" t="n">
         <v>4.377028878081886</v>
@@ -31996,40 +31996,40 @@
         <v>16.47703218086191</v>
       </c>
       <c r="J14" t="n">
-        <v>36.27436638507044</v>
+        <v>36.27436638507045</v>
       </c>
       <c r="K14" t="n">
-        <v>54.36587205178166</v>
+        <v>54.36587205178167</v>
       </c>
       <c r="L14" t="n">
-        <v>67.4456716394881</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M14" t="n">
-        <v>75.04630508858745</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N14" t="n">
-        <v>76.26063276341721</v>
+        <v>76.26063276341722</v>
       </c>
       <c r="O14" t="n">
-        <v>72.01075302154713</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P14" t="n">
-        <v>61.45951167623806</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.15353372468843</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R14" t="n">
-        <v>26.84716614307935</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S14" t="n">
-        <v>9.739196441771369</v>
+        <v>9.739196441771371</v>
       </c>
       <c r="T14" t="n">
-        <v>1.870908718545437</v>
+        <v>1.870908718545438</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03419136435948255</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2286749091566102</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H15" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I15" t="n">
-        <v>7.873237003856976</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J15" t="n">
-        <v>21.60476411466027</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K15" t="n">
-        <v>36.92598302815315</v>
+        <v>36.92598302815316</v>
       </c>
       <c r="L15" t="n">
-        <v>49.65154113069294</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M15" t="n">
-        <v>57.94100658762004</v>
+        <v>57.94100658762006</v>
       </c>
       <c r="N15" t="n">
-        <v>59.47453262314838</v>
+        <v>59.47453262314839</v>
       </c>
       <c r="O15" t="n">
-        <v>54.40757805709927</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P15" t="n">
-        <v>43.66687804763376</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q15" t="n">
-        <v>29.19015156181572</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R15" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S15" t="n">
-        <v>4.247536141571244</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9217203575215996</v>
+        <v>0.9217203575215999</v>
       </c>
       <c r="U15" t="n">
         <v>0.01504440191819805</v>
@@ -32151,7 +32151,7 @@
         <v>1.704506074377875</v>
       </c>
       <c r="I16" t="n">
-        <v>5.765343654439681</v>
+        <v>5.765343654439682</v>
       </c>
       <c r="J16" t="n">
         <v>13.55413470392303</v>
@@ -32163,13 +32163,13 @@
         <v>28.50254840529218</v>
       </c>
       <c r="M16" t="n">
-        <v>30.05194094120416</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N16" t="n">
-        <v>29.33737295501305</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O16" t="n">
-        <v>27.09781231536522</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P16" t="n">
         <v>23.18685972752886</v>
@@ -32178,13 +32178,13 @@
         <v>16.05337980684519</v>
       </c>
       <c r="R16" t="n">
-        <v>8.620129901710593</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S16" t="n">
-        <v>3.341041047630248</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8191389109995914</v>
+        <v>0.8191389109995916</v>
       </c>
       <c r="U16" t="n">
         <v>0.01045709248084586</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.427392054493532</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H17" t="n">
         <v>4.377028878081886</v>
@@ -32233,40 +32233,40 @@
         <v>16.47703218086191</v>
       </c>
       <c r="J17" t="n">
-        <v>36.27436638507044</v>
+        <v>36.27436638507045</v>
       </c>
       <c r="K17" t="n">
-        <v>54.36587205178166</v>
+        <v>54.36587205178167</v>
       </c>
       <c r="L17" t="n">
-        <v>67.4456716394881</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M17" t="n">
-        <v>75.04630508858745</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N17" t="n">
-        <v>76.26063276341721</v>
+        <v>76.26063276341722</v>
       </c>
       <c r="O17" t="n">
-        <v>72.01075302154713</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P17" t="n">
-        <v>61.45951167623806</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q17" t="n">
-        <v>46.15353372468843</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R17" t="n">
-        <v>26.84716614307935</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S17" t="n">
-        <v>9.739196441771369</v>
+        <v>9.739196441771371</v>
       </c>
       <c r="T17" t="n">
-        <v>1.870908718545437</v>
+        <v>1.870908718545438</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03419136435948255</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2286749091566102</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H18" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I18" t="n">
-        <v>7.873237003856976</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J18" t="n">
-        <v>21.60476411466027</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K18" t="n">
-        <v>36.92598302815315</v>
+        <v>36.92598302815316</v>
       </c>
       <c r="L18" t="n">
-        <v>49.65154113069294</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M18" t="n">
-        <v>57.94100658762004</v>
+        <v>57.94100658762006</v>
       </c>
       <c r="N18" t="n">
-        <v>59.47453262314838</v>
+        <v>59.47453262314839</v>
       </c>
       <c r="O18" t="n">
-        <v>54.40757805709927</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P18" t="n">
-        <v>43.66687804763376</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.19015156181572</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R18" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S18" t="n">
-        <v>4.247536141571244</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9217203575215996</v>
+        <v>0.9217203575215999</v>
       </c>
       <c r="U18" t="n">
         <v>0.01504440191819805</v>
@@ -32388,7 +32388,7 @@
         <v>1.704506074377875</v>
       </c>
       <c r="I19" t="n">
-        <v>5.765343654439681</v>
+        <v>5.765343654439682</v>
       </c>
       <c r="J19" t="n">
         <v>13.55413470392303</v>
@@ -32400,13 +32400,13 @@
         <v>28.50254840529218</v>
       </c>
       <c r="M19" t="n">
-        <v>30.05194094120416</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N19" t="n">
-        <v>29.33737295501305</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O19" t="n">
-        <v>27.09781231536522</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P19" t="n">
         <v>23.18685972752886</v>
@@ -32415,13 +32415,13 @@
         <v>16.05337980684519</v>
       </c>
       <c r="R19" t="n">
-        <v>8.620129901710593</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S19" t="n">
-        <v>3.341041047630248</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8191389109995914</v>
+        <v>0.8191389109995916</v>
       </c>
       <c r="U19" t="n">
         <v>0.01045709248084586</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.427392054493532</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H20" t="n">
         <v>4.377028878081886</v>
@@ -32470,40 +32470,40 @@
         <v>16.47703218086191</v>
       </c>
       <c r="J20" t="n">
-        <v>36.27436638507044</v>
+        <v>36.27436638507045</v>
       </c>
       <c r="K20" t="n">
-        <v>54.36587205178166</v>
+        <v>54.36587205178167</v>
       </c>
       <c r="L20" t="n">
-        <v>67.4456716394881</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M20" t="n">
-        <v>75.04630508858745</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N20" t="n">
-        <v>76.26063276341721</v>
+        <v>76.26063276341722</v>
       </c>
       <c r="O20" t="n">
-        <v>72.01075302154713</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P20" t="n">
-        <v>61.45951167623806</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q20" t="n">
-        <v>46.15353372468843</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R20" t="n">
-        <v>26.84716614307935</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S20" t="n">
-        <v>9.739196441771369</v>
+        <v>9.739196441771371</v>
       </c>
       <c r="T20" t="n">
-        <v>1.870908718545437</v>
+        <v>1.870908718545438</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03419136435948255</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2286749091566102</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H21" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I21" t="n">
-        <v>7.873237003856976</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J21" t="n">
-        <v>21.60476411466027</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K21" t="n">
-        <v>36.92598302815315</v>
+        <v>36.92598302815316</v>
       </c>
       <c r="L21" t="n">
-        <v>49.65154113069294</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M21" t="n">
-        <v>57.94100658762004</v>
+        <v>57.94100658762006</v>
       </c>
       <c r="N21" t="n">
-        <v>59.47453262314838</v>
+        <v>59.47453262314839</v>
       </c>
       <c r="O21" t="n">
-        <v>54.40757805709927</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P21" t="n">
-        <v>43.66687804763376</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q21" t="n">
-        <v>29.19015156181572</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R21" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S21" t="n">
-        <v>4.247536141571244</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9217203575215996</v>
+        <v>0.9217203575215999</v>
       </c>
       <c r="U21" t="n">
         <v>0.01504440191819805</v>
@@ -32625,7 +32625,7 @@
         <v>1.704506074377875</v>
       </c>
       <c r="I22" t="n">
-        <v>5.765343654439681</v>
+        <v>5.765343654439682</v>
       </c>
       <c r="J22" t="n">
         <v>13.55413470392303</v>
@@ -32637,13 +32637,13 @@
         <v>28.50254840529218</v>
       </c>
       <c r="M22" t="n">
-        <v>30.05194094120416</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N22" t="n">
-        <v>29.33737295501305</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O22" t="n">
-        <v>27.09781231536522</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P22" t="n">
         <v>23.18685972752886</v>
@@ -32652,13 +32652,13 @@
         <v>16.05337980684519</v>
       </c>
       <c r="R22" t="n">
-        <v>8.620129901710593</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S22" t="n">
-        <v>3.341041047630248</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8191389109995914</v>
+        <v>0.8191389109995916</v>
       </c>
       <c r="U22" t="n">
         <v>0.01045709248084586</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.427392054493532</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H23" t="n">
         <v>4.377028878081886</v>
@@ -32707,40 +32707,40 @@
         <v>16.47703218086191</v>
       </c>
       <c r="J23" t="n">
-        <v>36.27436638507044</v>
+        <v>36.27436638507045</v>
       </c>
       <c r="K23" t="n">
-        <v>54.36587205178166</v>
+        <v>54.36587205178167</v>
       </c>
       <c r="L23" t="n">
-        <v>67.4456716394881</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M23" t="n">
-        <v>75.04630508858745</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N23" t="n">
-        <v>76.26063276341721</v>
+        <v>76.26063276341722</v>
       </c>
       <c r="O23" t="n">
-        <v>72.01075302154713</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P23" t="n">
-        <v>61.45951167623806</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q23" t="n">
-        <v>46.15353372468843</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R23" t="n">
-        <v>26.84716614307935</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S23" t="n">
-        <v>9.739196441771369</v>
+        <v>9.739196441771371</v>
       </c>
       <c r="T23" t="n">
-        <v>1.870908718545437</v>
+        <v>1.870908718545438</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03419136435948255</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2286749091566102</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H24" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I24" t="n">
-        <v>7.873237003856976</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J24" t="n">
-        <v>21.60476411466027</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K24" t="n">
-        <v>36.92598302815315</v>
+        <v>36.92598302815316</v>
       </c>
       <c r="L24" t="n">
-        <v>49.65154113069294</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M24" t="n">
-        <v>57.94100658762004</v>
+        <v>57.94100658762006</v>
       </c>
       <c r="N24" t="n">
-        <v>59.47453262314838</v>
+        <v>59.47453262314839</v>
       </c>
       <c r="O24" t="n">
-        <v>54.40757805709927</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P24" t="n">
-        <v>43.66687804763376</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q24" t="n">
-        <v>29.19015156181572</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R24" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S24" t="n">
-        <v>4.247536141571244</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9217203575215996</v>
+        <v>0.9217203575215999</v>
       </c>
       <c r="U24" t="n">
         <v>0.01504440191819805</v>
@@ -32862,7 +32862,7 @@
         <v>1.704506074377875</v>
       </c>
       <c r="I25" t="n">
-        <v>5.765343654439681</v>
+        <v>5.765343654439682</v>
       </c>
       <c r="J25" t="n">
         <v>13.55413470392303</v>
@@ -32874,13 +32874,13 @@
         <v>28.50254840529218</v>
       </c>
       <c r="M25" t="n">
-        <v>30.05194094120416</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N25" t="n">
-        <v>29.33737295501305</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O25" t="n">
-        <v>27.09781231536522</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P25" t="n">
         <v>23.18685972752886</v>
@@ -32889,13 +32889,13 @@
         <v>16.05337980684519</v>
       </c>
       <c r="R25" t="n">
-        <v>8.620129901710593</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S25" t="n">
-        <v>3.341041047630248</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8191389109995914</v>
+        <v>0.8191389109995916</v>
       </c>
       <c r="U25" t="n">
         <v>0.01045709248084586</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.427392054493532</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H26" t="n">
         <v>4.377028878081886</v>
@@ -32944,40 +32944,40 @@
         <v>16.47703218086191</v>
       </c>
       <c r="J26" t="n">
-        <v>36.27436638507044</v>
+        <v>36.27436638507045</v>
       </c>
       <c r="K26" t="n">
-        <v>54.36587205178166</v>
+        <v>54.36587205178167</v>
       </c>
       <c r="L26" t="n">
-        <v>67.4456716394881</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M26" t="n">
-        <v>75.04630508858745</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N26" t="n">
-        <v>76.26063276341721</v>
+        <v>76.26063276341722</v>
       </c>
       <c r="O26" t="n">
-        <v>72.01075302154713</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P26" t="n">
-        <v>61.45951167623806</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q26" t="n">
-        <v>46.15353372468843</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R26" t="n">
-        <v>26.84716614307935</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S26" t="n">
-        <v>9.739196441771369</v>
+        <v>9.739196441771371</v>
       </c>
       <c r="T26" t="n">
-        <v>1.870908718545437</v>
+        <v>1.870908718545438</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03419136435948255</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2286749091566102</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H27" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I27" t="n">
-        <v>7.873237003856976</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J27" t="n">
-        <v>21.60476411466027</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K27" t="n">
-        <v>36.92598302815315</v>
+        <v>36.92598302815316</v>
       </c>
       <c r="L27" t="n">
-        <v>49.65154113069294</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M27" t="n">
-        <v>57.94100658762004</v>
+        <v>57.94100658762006</v>
       </c>
       <c r="N27" t="n">
-        <v>59.47453262314838</v>
+        <v>59.47453262314839</v>
       </c>
       <c r="O27" t="n">
-        <v>54.40757805709927</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P27" t="n">
-        <v>43.66687804763376</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.19015156181572</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R27" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S27" t="n">
-        <v>4.247536141571244</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9217203575215996</v>
+        <v>0.9217203575215999</v>
       </c>
       <c r="U27" t="n">
         <v>0.01504440191819805</v>
@@ -33099,7 +33099,7 @@
         <v>1.704506074377875</v>
       </c>
       <c r="I28" t="n">
-        <v>5.765343654439681</v>
+        <v>5.765343654439682</v>
       </c>
       <c r="J28" t="n">
         <v>13.55413470392303</v>
@@ -33111,13 +33111,13 @@
         <v>28.50254840529218</v>
       </c>
       <c r="M28" t="n">
-        <v>30.05194094120416</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N28" t="n">
-        <v>29.33737295501305</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O28" t="n">
-        <v>27.09781231536522</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P28" t="n">
         <v>23.18685972752886</v>
@@ -33126,13 +33126,13 @@
         <v>16.05337980684519</v>
       </c>
       <c r="R28" t="n">
-        <v>8.620129901710593</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S28" t="n">
-        <v>3.341041047630248</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8191389109995914</v>
+        <v>0.8191389109995916</v>
       </c>
       <c r="U28" t="n">
         <v>0.01045709248084586</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.427392054493532</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H29" t="n">
         <v>4.377028878081886</v>
@@ -33181,40 +33181,40 @@
         <v>16.47703218086191</v>
       </c>
       <c r="J29" t="n">
-        <v>36.27436638507044</v>
+        <v>36.27436638507045</v>
       </c>
       <c r="K29" t="n">
-        <v>54.36587205178166</v>
+        <v>54.36587205178167</v>
       </c>
       <c r="L29" t="n">
-        <v>67.4456716394881</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M29" t="n">
-        <v>75.04630508858745</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N29" t="n">
-        <v>76.26063276341721</v>
+        <v>76.26063276341722</v>
       </c>
       <c r="O29" t="n">
-        <v>72.01075302154713</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P29" t="n">
-        <v>61.45951167623806</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q29" t="n">
-        <v>46.15353372468843</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R29" t="n">
-        <v>26.84716614307935</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S29" t="n">
-        <v>9.739196441771369</v>
+        <v>9.739196441771371</v>
       </c>
       <c r="T29" t="n">
-        <v>1.870908718545437</v>
+        <v>1.870908718545438</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03419136435948255</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2286749091566102</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H30" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I30" t="n">
-        <v>7.873237003856976</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J30" t="n">
-        <v>21.60476411466027</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K30" t="n">
-        <v>36.92598302815315</v>
+        <v>36.92598302815316</v>
       </c>
       <c r="L30" t="n">
-        <v>49.65154113069294</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M30" t="n">
-        <v>57.94100658762004</v>
+        <v>57.94100658762006</v>
       </c>
       <c r="N30" t="n">
-        <v>59.47453262314838</v>
+        <v>59.47453262314839</v>
       </c>
       <c r="O30" t="n">
-        <v>54.40757805709927</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P30" t="n">
-        <v>43.66687804763376</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q30" t="n">
-        <v>29.19015156181572</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R30" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S30" t="n">
-        <v>4.247536141571244</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9217203575215996</v>
+        <v>0.9217203575215999</v>
       </c>
       <c r="U30" t="n">
         <v>0.01504440191819805</v>
@@ -33336,7 +33336,7 @@
         <v>1.704506074377875</v>
       </c>
       <c r="I31" t="n">
-        <v>5.765343654439681</v>
+        <v>5.765343654439682</v>
       </c>
       <c r="J31" t="n">
         <v>13.55413470392303</v>
@@ -33348,13 +33348,13 @@
         <v>28.50254840529218</v>
       </c>
       <c r="M31" t="n">
-        <v>30.05194094120416</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N31" t="n">
-        <v>29.33737295501305</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O31" t="n">
-        <v>27.09781231536522</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P31" t="n">
         <v>23.18685972752886</v>
@@ -33363,13 +33363,13 @@
         <v>16.05337980684519</v>
       </c>
       <c r="R31" t="n">
-        <v>8.620129901710593</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S31" t="n">
-        <v>3.341041047630248</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8191389109995914</v>
+        <v>0.8191389109995916</v>
       </c>
       <c r="U31" t="n">
         <v>0.01045709248084586</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.427392054493532</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H32" t="n">
         <v>4.377028878081886</v>
@@ -33418,40 +33418,40 @@
         <v>16.47703218086191</v>
       </c>
       <c r="J32" t="n">
-        <v>36.27436638507044</v>
+        <v>36.27436638507045</v>
       </c>
       <c r="K32" t="n">
-        <v>54.36587205178166</v>
+        <v>54.36587205178167</v>
       </c>
       <c r="L32" t="n">
-        <v>67.4456716394881</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M32" t="n">
-        <v>75.04630508858745</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N32" t="n">
-        <v>76.26063276341721</v>
+        <v>76.26063276341722</v>
       </c>
       <c r="O32" t="n">
-        <v>72.01075302154713</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P32" t="n">
-        <v>61.45951167623806</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q32" t="n">
-        <v>46.15353372468843</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R32" t="n">
-        <v>26.84716614307935</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S32" t="n">
-        <v>9.739196441771369</v>
+        <v>9.739196441771371</v>
       </c>
       <c r="T32" t="n">
-        <v>1.870908718545437</v>
+        <v>1.870908718545438</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03419136435948255</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2286749091566102</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H33" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I33" t="n">
-        <v>7.873237003856976</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J33" t="n">
-        <v>21.60476411466027</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K33" t="n">
-        <v>36.92598302815315</v>
+        <v>36.92598302815316</v>
       </c>
       <c r="L33" t="n">
-        <v>49.65154113069294</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M33" t="n">
-        <v>57.94100658762004</v>
+        <v>57.94100658762006</v>
       </c>
       <c r="N33" t="n">
-        <v>59.47453262314838</v>
+        <v>59.47453262314839</v>
       </c>
       <c r="O33" t="n">
-        <v>54.40757805709927</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P33" t="n">
-        <v>43.66687804763376</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q33" t="n">
-        <v>29.19015156181572</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R33" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S33" t="n">
-        <v>4.247536141571244</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9217203575215996</v>
+        <v>0.9217203575215999</v>
       </c>
       <c r="U33" t="n">
         <v>0.01504440191819805</v>
@@ -33573,7 +33573,7 @@
         <v>1.704506074377875</v>
       </c>
       <c r="I34" t="n">
-        <v>5.765343654439681</v>
+        <v>5.765343654439682</v>
       </c>
       <c r="J34" t="n">
         <v>13.55413470392303</v>
@@ -33585,13 +33585,13 @@
         <v>28.50254840529218</v>
       </c>
       <c r="M34" t="n">
-        <v>30.05194094120416</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N34" t="n">
-        <v>29.33737295501305</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O34" t="n">
-        <v>27.09781231536522</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P34" t="n">
         <v>23.18685972752886</v>
@@ -33600,13 +33600,13 @@
         <v>16.05337980684519</v>
       </c>
       <c r="R34" t="n">
-        <v>8.620129901710593</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S34" t="n">
-        <v>3.341041047630248</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8191389109995914</v>
+        <v>0.8191389109995916</v>
       </c>
       <c r="U34" t="n">
         <v>0.01045709248084586</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.427392054493532</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H35" t="n">
         <v>4.377028878081886</v>
@@ -33655,40 +33655,40 @@
         <v>16.47703218086191</v>
       </c>
       <c r="J35" t="n">
-        <v>36.27436638507044</v>
+        <v>36.27436638507045</v>
       </c>
       <c r="K35" t="n">
-        <v>54.36587205178166</v>
+        <v>54.36587205178167</v>
       </c>
       <c r="L35" t="n">
-        <v>67.4456716394881</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M35" t="n">
-        <v>75.04630508858745</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N35" t="n">
-        <v>76.26063276341721</v>
+        <v>76.26063276341722</v>
       </c>
       <c r="O35" t="n">
-        <v>72.01075302154713</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P35" t="n">
-        <v>61.45951167623806</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q35" t="n">
-        <v>46.15353372468843</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R35" t="n">
-        <v>26.84716614307935</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S35" t="n">
-        <v>9.739196441771369</v>
+        <v>9.739196441771371</v>
       </c>
       <c r="T35" t="n">
-        <v>1.870908718545437</v>
+        <v>1.870908718545438</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03419136435948255</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2286749091566102</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H36" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I36" t="n">
-        <v>7.873237003856976</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J36" t="n">
-        <v>21.60476411466027</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K36" t="n">
-        <v>36.92598302815315</v>
+        <v>36.92598302815316</v>
       </c>
       <c r="L36" t="n">
-        <v>49.65154113069294</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M36" t="n">
-        <v>57.94100658762004</v>
+        <v>57.94100658762006</v>
       </c>
       <c r="N36" t="n">
-        <v>59.47453262314838</v>
+        <v>59.47453262314839</v>
       </c>
       <c r="O36" t="n">
-        <v>54.40757805709927</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P36" t="n">
-        <v>43.66687804763376</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q36" t="n">
-        <v>29.19015156181572</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R36" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S36" t="n">
-        <v>4.247536141571244</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9217203575215996</v>
+        <v>0.9217203575215999</v>
       </c>
       <c r="U36" t="n">
         <v>0.01504440191819805</v>
@@ -33810,7 +33810,7 @@
         <v>1.704506074377875</v>
       </c>
       <c r="I37" t="n">
-        <v>5.765343654439681</v>
+        <v>5.765343654439682</v>
       </c>
       <c r="J37" t="n">
         <v>13.55413470392303</v>
@@ -33822,13 +33822,13 @@
         <v>28.50254840529218</v>
       </c>
       <c r="M37" t="n">
-        <v>30.05194094120416</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N37" t="n">
-        <v>29.33737295501305</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O37" t="n">
-        <v>27.09781231536522</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P37" t="n">
         <v>23.18685972752886</v>
@@ -33837,13 +33837,13 @@
         <v>16.05337980684519</v>
       </c>
       <c r="R37" t="n">
-        <v>8.620129901710593</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S37" t="n">
-        <v>3.341041047630248</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8191389109995914</v>
+        <v>0.8191389109995916</v>
       </c>
       <c r="U37" t="n">
         <v>0.01045709248084586</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.427392054493532</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H38" t="n">
         <v>4.377028878081886</v>
@@ -33892,40 +33892,40 @@
         <v>16.47703218086191</v>
       </c>
       <c r="J38" t="n">
-        <v>36.27436638507044</v>
+        <v>36.27436638507045</v>
       </c>
       <c r="K38" t="n">
-        <v>54.36587205178166</v>
+        <v>54.36587205178167</v>
       </c>
       <c r="L38" t="n">
-        <v>67.4456716394881</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M38" t="n">
-        <v>75.04630508858745</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N38" t="n">
-        <v>76.26063276341721</v>
+        <v>76.26063276341722</v>
       </c>
       <c r="O38" t="n">
-        <v>72.01075302154713</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P38" t="n">
-        <v>61.45951167623806</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q38" t="n">
-        <v>46.15353372468843</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R38" t="n">
-        <v>26.84716614307935</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S38" t="n">
-        <v>9.739196441771369</v>
+        <v>9.739196441771371</v>
       </c>
       <c r="T38" t="n">
-        <v>1.870908718545437</v>
+        <v>1.870908718545438</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03419136435948255</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2286749091566102</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H39" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I39" t="n">
-        <v>7.873237003856976</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J39" t="n">
-        <v>21.60476411466027</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K39" t="n">
-        <v>36.92598302815315</v>
+        <v>36.92598302815316</v>
       </c>
       <c r="L39" t="n">
-        <v>49.65154113069294</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M39" t="n">
-        <v>57.94100658762004</v>
+        <v>57.94100658762006</v>
       </c>
       <c r="N39" t="n">
-        <v>59.47453262314838</v>
+        <v>59.47453262314839</v>
       </c>
       <c r="O39" t="n">
-        <v>54.40757805709927</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P39" t="n">
-        <v>43.66687804763376</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q39" t="n">
-        <v>29.19015156181572</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R39" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S39" t="n">
-        <v>4.247536141571244</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9217203575215996</v>
+        <v>0.9217203575215999</v>
       </c>
       <c r="U39" t="n">
         <v>0.01504440191819805</v>
@@ -34047,7 +34047,7 @@
         <v>1.704506074377875</v>
       </c>
       <c r="I40" t="n">
-        <v>5.765343654439681</v>
+        <v>5.765343654439682</v>
       </c>
       <c r="J40" t="n">
         <v>13.55413470392303</v>
@@ -34059,13 +34059,13 @@
         <v>28.50254840529218</v>
       </c>
       <c r="M40" t="n">
-        <v>30.05194094120416</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N40" t="n">
-        <v>29.33737295501305</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O40" t="n">
-        <v>27.09781231536522</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P40" t="n">
         <v>23.18685972752886</v>
@@ -34074,13 +34074,13 @@
         <v>16.05337980684519</v>
       </c>
       <c r="R40" t="n">
-        <v>8.620129901710593</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S40" t="n">
-        <v>3.341041047630248</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8191389109995914</v>
+        <v>0.8191389109995916</v>
       </c>
       <c r="U40" t="n">
         <v>0.01045709248084586</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.427392054493532</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H41" t="n">
         <v>4.377028878081886</v>
@@ -34129,40 +34129,40 @@
         <v>16.47703218086191</v>
       </c>
       <c r="J41" t="n">
-        <v>36.27436638507044</v>
+        <v>36.27436638507045</v>
       </c>
       <c r="K41" t="n">
-        <v>54.36587205178166</v>
+        <v>54.36587205178167</v>
       </c>
       <c r="L41" t="n">
-        <v>67.4456716394881</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M41" t="n">
-        <v>75.04630508858745</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N41" t="n">
-        <v>76.26063276341721</v>
+        <v>76.26063276341722</v>
       </c>
       <c r="O41" t="n">
-        <v>72.01075302154713</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P41" t="n">
-        <v>61.45951167623806</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q41" t="n">
-        <v>46.15353372468843</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R41" t="n">
-        <v>26.84716614307935</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S41" t="n">
-        <v>9.739196441771369</v>
+        <v>9.739196441771371</v>
       </c>
       <c r="T41" t="n">
-        <v>1.870908718545437</v>
+        <v>1.870908718545438</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03419136435948255</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2286749091566102</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H42" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I42" t="n">
-        <v>7.873237003856976</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J42" t="n">
-        <v>21.60476411466027</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K42" t="n">
-        <v>36.92598302815315</v>
+        <v>36.92598302815316</v>
       </c>
       <c r="L42" t="n">
-        <v>49.65154113069294</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M42" t="n">
-        <v>57.94100658762004</v>
+        <v>57.94100658762006</v>
       </c>
       <c r="N42" t="n">
-        <v>59.47453262314838</v>
+        <v>59.47453262314839</v>
       </c>
       <c r="O42" t="n">
-        <v>54.40757805709927</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P42" t="n">
-        <v>43.66687804763376</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.19015156181572</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R42" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S42" t="n">
-        <v>4.247536141571244</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9217203575215996</v>
+        <v>0.9217203575215999</v>
       </c>
       <c r="U42" t="n">
         <v>0.01504440191819805</v>
@@ -34284,7 +34284,7 @@
         <v>1.704506074377875</v>
       </c>
       <c r="I43" t="n">
-        <v>5.765343654439681</v>
+        <v>5.765343654439682</v>
       </c>
       <c r="J43" t="n">
         <v>13.55413470392303</v>
@@ -34296,13 +34296,13 @@
         <v>28.50254840529218</v>
       </c>
       <c r="M43" t="n">
-        <v>30.05194094120416</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N43" t="n">
-        <v>29.33737295501305</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O43" t="n">
-        <v>27.09781231536522</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P43" t="n">
         <v>23.18685972752886</v>
@@ -34311,13 +34311,13 @@
         <v>16.05337980684519</v>
       </c>
       <c r="R43" t="n">
-        <v>8.620129901710593</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S43" t="n">
-        <v>3.341041047630248</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8191389109995914</v>
+        <v>0.8191389109995916</v>
       </c>
       <c r="U43" t="n">
         <v>0.01045709248084586</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.427392054493532</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H44" t="n">
         <v>4.377028878081886</v>
@@ -34366,40 +34366,40 @@
         <v>16.47703218086191</v>
       </c>
       <c r="J44" t="n">
-        <v>36.27436638507044</v>
+        <v>36.27436638507045</v>
       </c>
       <c r="K44" t="n">
-        <v>54.36587205178166</v>
+        <v>54.36587205178167</v>
       </c>
       <c r="L44" t="n">
-        <v>67.4456716394881</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M44" t="n">
-        <v>75.04630508858745</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N44" t="n">
-        <v>76.26063276341721</v>
+        <v>76.26063276341722</v>
       </c>
       <c r="O44" t="n">
-        <v>72.01075302154713</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P44" t="n">
-        <v>61.45951167623806</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q44" t="n">
-        <v>46.15353372468843</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R44" t="n">
-        <v>26.84716614307935</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S44" t="n">
-        <v>9.739196441771369</v>
+        <v>9.739196441771371</v>
       </c>
       <c r="T44" t="n">
-        <v>1.870908718545437</v>
+        <v>1.870908718545438</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03419136435948255</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2286749091566102</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H45" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I45" t="n">
-        <v>7.873237003856976</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J45" t="n">
-        <v>21.60476411466027</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K45" t="n">
-        <v>36.92598302815315</v>
+        <v>36.92598302815316</v>
       </c>
       <c r="L45" t="n">
-        <v>49.65154113069294</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M45" t="n">
-        <v>57.94100658762004</v>
+        <v>57.94100658762006</v>
       </c>
       <c r="N45" t="n">
-        <v>59.47453262314838</v>
+        <v>59.47453262314839</v>
       </c>
       <c r="O45" t="n">
-        <v>54.40757805709927</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P45" t="n">
-        <v>43.66687804763376</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q45" t="n">
-        <v>29.19015156181572</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R45" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S45" t="n">
-        <v>4.247536141571244</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9217203575215996</v>
+        <v>0.9217203575215999</v>
       </c>
       <c r="U45" t="n">
         <v>0.01504440191819805</v>
@@ -34521,7 +34521,7 @@
         <v>1.704506074377875</v>
       </c>
       <c r="I46" t="n">
-        <v>5.765343654439681</v>
+        <v>5.765343654439682</v>
       </c>
       <c r="J46" t="n">
         <v>13.55413470392303</v>
@@ -34533,13 +34533,13 @@
         <v>28.50254840529218</v>
       </c>
       <c r="M46" t="n">
-        <v>30.05194094120416</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N46" t="n">
-        <v>29.33737295501305</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O46" t="n">
-        <v>27.09781231536522</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P46" t="n">
         <v>23.18685972752886</v>
@@ -34548,13 +34548,13 @@
         <v>16.05337980684519</v>
       </c>
       <c r="R46" t="n">
-        <v>8.620129901710593</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S46" t="n">
-        <v>3.341041047630248</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8191389109995914</v>
+        <v>0.8191389109995916</v>
       </c>
       <c r="U46" t="n">
         <v>0.01045709248084586</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20.12057943994268</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>69.34789868787114</v>
       </c>
       <c r="K11" t="n">
-        <v>48.3954578362878</v>
+        <v>48.3954578362881</v>
       </c>
       <c r="L11" t="n">
-        <v>45.79869349898755</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>58.8195086908014</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>56.03197842934709</v>
+        <v>46.41263080609883</v>
       </c>
       <c r="P11" t="n">
-        <v>4.716787343782941</v>
+        <v>44.3459527504555</v>
       </c>
       <c r="Q11" t="n">
-        <v>37.96728067972563</v>
+        <v>37.96728067972593</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>25.3810651584342</v>
       </c>
       <c r="S11" t="n">
-        <v>14.83856368501272</v>
+        <v>14.838563685013</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35468,13 +35468,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.395339792996568</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>69.05022443610309</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>69.44556422910053</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35547,16 +35547,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.50396381127462</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>67.6854741829178</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>46.32017083317677</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>72.40356150710403</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>17.06741511535093</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>58.49050692234052</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35589,7 +35589,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>45.44617535402779</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,34 +35644,34 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>69.34789868787084</v>
+        <v>69.34789868787114</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>45.79869349898755</v>
+        <v>32.76244588697674</v>
       </c>
       <c r="M14" t="n">
-        <v>58.8195086908014</v>
+        <v>58.8195086908017</v>
       </c>
       <c r="N14" t="n">
-        <v>60.96700599631298</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>56.0319784293474</v>
       </c>
       <c r="P14" t="n">
-        <v>36.9171790449012</v>
+        <v>44.3459527504555</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>25.3810651584342</v>
       </c>
       <c r="S14" t="n">
-        <v>14.83856368501272</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>69.44556422910053</v>
+        <v>69.44556422909967</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35793,19 +35793,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>24.25652120601639</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>53.59677039642499</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>64.43430555666836</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>72.40356150710403</v>
       </c>
       <c r="K16" t="n">
-        <v>72.40356150710403</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>72.40356150710403</v>
@@ -35817,7 +35817,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>13.41898604577098</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35875,43 +35875,43 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>12.74642708286495</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>69.47816508257459</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>72.40356150710403</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>72.40356150710403</v>
       </c>
-      <c r="P17" t="n">
-        <v>56.73173799970963</v>
-      </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>72.40356150710403</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -36121,29 +36121,29 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>49.38622323215935</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>72.40356150710403</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>72.40356150710403</v>
       </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
         <v>72.40356150710403</v>
       </c>
-      <c r="P20" t="n">
-        <v>69.47816508257461</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
@@ -36154,7 +36154,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>20.09194185041525</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36349,13 +36349,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>12.7464270828649</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.40356150710407</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36364,19 +36364,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>72.40356150710407</v>
+        <v>72.40356150710403</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>72.40356150710407</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>72.40356150710403</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>72.40356150710403</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36388,7 +36388,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>69.47816508257461</v>
+        <v>56.73173799970969</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>27.22608345604193</v>
       </c>
       <c r="J26" t="n">
-        <v>136.5875382368214</v>
+        <v>24.32507703045793</v>
       </c>
       <c r="K26" t="n">
-        <v>55.50096185238704</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>430.5925962394322</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="N26" t="n">
-        <v>430.5925962394322</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="O26" t="n">
-        <v>222.7127228626057</v>
+        <v>253.7663449537358</v>
       </c>
       <c r="P26" t="n">
-        <v>51.45145676655445</v>
+        <v>373.2501649380371</v>
       </c>
       <c r="Q26" t="n">
-        <v>257.3877753557296</v>
+        <v>45.07278469582489</v>
       </c>
       <c r="R26" t="n">
-        <v>98.2029890475156</v>
+        <v>98.20298904751562</v>
       </c>
       <c r="S26" t="n">
         <v>21.94406770111196</v>
@@ -36683,13 +36683,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>47.69624064140771</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>47.69624064140771</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,7 +36726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>41.39296066364864</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -36762,10 +36762,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>23.90725213751587</v>
       </c>
       <c r="O28" t="n">
-        <v>175.1664275102729</v>
+        <v>109.8662147091084</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>27.22608345604193</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>245.5500178760439</v>
@@ -36835,22 +36835,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>52.90419751508679</v>
+        <v>249.3404712199513</v>
       </c>
       <c r="M29" t="n">
-        <v>122.9129803364042</v>
+        <v>65.92501270690066</v>
       </c>
       <c r="N29" t="n">
-        <v>430.5925962394322</v>
+        <v>60.9825982643826</v>
       </c>
       <c r="O29" t="n">
-        <v>430.5925962394322</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="P29" t="n">
         <v>373.2501649380371</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>257.3877753557296</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>47.69624064140771</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36966,19 +36966,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>9.389654821811787</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>62.2659458148439</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>53.42567484927601</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -37014,7 +37014,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>0.5493838562439279</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>27.22608345604191</v>
       </c>
       <c r="J32" t="n">
-        <v>245.5500178760438</v>
+        <v>76.45340270397007</v>
       </c>
       <c r="K32" t="n">
-        <v>170.7622184201436</v>
+        <v>158.4214335779659</v>
       </c>
       <c r="L32" t="n">
-        <v>52.90419751508671</v>
+        <v>51.59057427384582</v>
       </c>
       <c r="M32" t="n">
-        <v>65.92501270690056</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="N32" t="n">
-        <v>430.5925962394322</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="O32" t="n">
-        <v>222.7127228626057</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="P32" t="n">
-        <v>373.250164938037</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.07278469582479</v>
+        <v>45.07278469582486</v>
       </c>
       <c r="R32" t="n">
-        <v>98.20298904751552</v>
+        <v>32.48656917453314</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>21.94406770111193</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>47.6962406414078</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>25.71430813312212</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37175,7 +37175,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>21.98193250828584</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>89.39310848728807</v>
+        <v>114.8428129696398</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37239,19 +37239,19 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>59.7742306843893</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.77331902298519</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.5493838562438995</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>50.64139524743943</v>
+        <v>50.64139524743932</v>
       </c>
       <c r="J35" t="n">
-        <v>268.0596824064248</v>
+        <v>200.5623878314492</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>358.1890347323279</v>
       </c>
       <c r="L35" t="n">
-        <v>76.31950930648429</v>
+        <v>76.31950930648421</v>
       </c>
       <c r="M35" t="n">
-        <v>358.1890347323276</v>
+        <v>89.34032449829805</v>
       </c>
       <c r="N35" t="n">
-        <v>91.48782180380972</v>
+        <v>91.48782180380962</v>
       </c>
       <c r="O35" t="n">
-        <v>358.1890347323276</v>
+        <v>86.55279423684375</v>
       </c>
       <c r="P35" t="n">
-        <v>78.1345886977586</v>
+        <v>358.1890347323279</v>
       </c>
       <c r="Q35" t="n">
-        <v>68.48809648722238</v>
+        <v>68.48809648722228</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>15.09814403010287</v>
       </c>
       <c r="S35" t="n">
-        <v>45.35937949250946</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>23.41531179139751</v>
+        <v>23.4153117913974</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>7.197970129513493</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37412,7 +37412,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>7.197970129513608</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.05612183139949</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37452,13 +37452,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>76.84098664067352</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>92.89710847207336</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>50.64139524743941</v>
       </c>
       <c r="J38" t="n">
-        <v>99.86871449536758</v>
+        <v>99.86871449536757</v>
       </c>
       <c r="K38" t="n">
-        <v>358.1890347323279</v>
+        <v>78.91627364378454</v>
       </c>
       <c r="L38" t="n">
         <v>76.31950930648429</v>
       </c>
       <c r="M38" t="n">
-        <v>245.1278710528561</v>
+        <v>136.4065765254937</v>
       </c>
       <c r="N38" t="n">
         <v>284.1944935788105</v>
       </c>
       <c r="O38" t="n">
-        <v>86.55279423684384</v>
+        <v>358.1890347323279</v>
       </c>
       <c r="P38" t="n">
-        <v>74.86676855795196</v>
+        <v>74.86676855795193</v>
       </c>
       <c r="Q38" t="n">
-        <v>68.48809648722238</v>
+        <v>68.48809648722236</v>
       </c>
       <c r="R38" t="n">
-        <v>55.90188096593066</v>
+        <v>121.6183008389131</v>
       </c>
       <c r="S38" t="n">
-        <v>45.35937949250946</v>
+        <v>45.35937949250943</v>
       </c>
       <c r="T38" t="n">
-        <v>23.41531179139751</v>
+        <v>23.41531179139749</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37646,7 +37646,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>7.197970129513522</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -37655,7 +37655,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>7.197970129513489</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>92.89710847207299</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>92.8971084720731</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>265.6177497959521</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>78.91627364378448</v>
@@ -37786,28 +37786,28 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>89.34032449829809</v>
+        <v>358.1890347323279</v>
       </c>
       <c r="N41" t="n">
+        <v>91.48782180380965</v>
+      </c>
+      <c r="O41" t="n">
+        <v>86.55279423684378</v>
+      </c>
+      <c r="P41" t="n">
         <v>358.1890347323279</v>
       </c>
-      <c r="O41" t="n">
-        <v>358.1890347323279</v>
-      </c>
-      <c r="P41" t="n">
-        <v>74.8667685579519</v>
-      </c>
       <c r="Q41" t="n">
-        <v>68.48809648722232</v>
+        <v>280.803087147127</v>
       </c>
       <c r="R41" t="n">
-        <v>55.9018809659306</v>
+        <v>121.618300838913</v>
       </c>
       <c r="S41" t="n">
-        <v>45.3593794925094</v>
+        <v>19.11219577117149</v>
       </c>
       <c r="T41" t="n">
-        <v>23.41531179139746</v>
+        <v>23.41531179139743</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.197970129513547</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37892,7 +37892,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>7.197970129513579</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -37947,10 +37947,10 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>92.89710847207316</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>92.89710847207327</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>50.64139524743938</v>
+        <v>50.64139524743935</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>119.690127044601</v>
       </c>
       <c r="K44" t="n">
-        <v>78.91627364378448</v>
+        <v>358.1890347323279</v>
       </c>
       <c r="L44" t="n">
         <v>76.31950930648424</v>
       </c>
       <c r="M44" t="n">
-        <v>89.34032449829809</v>
+        <v>89.34032449829807</v>
       </c>
       <c r="N44" t="n">
-        <v>358.1890347323279</v>
+        <v>91.48782180380965</v>
       </c>
       <c r="O44" t="n">
         <v>86.55279423684378</v>
       </c>
       <c r="P44" t="n">
-        <v>272.8448636355599</v>
+        <v>74.86676855795187</v>
       </c>
       <c r="Q44" t="n">
         <v>280.803087147127</v>
       </c>
       <c r="R44" t="n">
-        <v>55.9018809659306</v>
+        <v>121.618300838913</v>
       </c>
       <c r="S44" t="n">
-        <v>45.3593794925094</v>
+        <v>45.35937949250938</v>
       </c>
       <c r="T44" t="n">
-        <v>23.41531179139746</v>
+        <v>23.41531179139743</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>7.197970129513579</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38138,7 +38138,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>7.197970129513547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -38154,7 +38154,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>92.89710847207316</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>92.89710847207327</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
